--- a/living-planet-spread.xlsx
+++ b/living-planet-spread.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F343"/>
+  <dimension ref="A1:F344"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1522,20 +1522,20 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Asia and Pacific</t>
+          <t>Africa</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>1970</v>
+        <v>2018</v>
       </c>
       <c r="D50" t="n">
-        <v>100</v>
+        <v>34.445875</v>
       </c>
       <c r="E50" t="n">
-        <v>100</v>
+        <v>73.43358000000001</v>
       </c>
       <c r="F50" t="n">
-        <v>100</v>
+        <v>15.991854</v>
       </c>
     </row>
     <row r="51">
@@ -1548,16 +1548,16 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>1971</v>
+        <v>1970</v>
       </c>
       <c r="D51" t="n">
-        <v>103.7109657</v>
+        <v>100</v>
       </c>
       <c r="E51" t="n">
-        <v>109.7304737</v>
+        <v>100</v>
       </c>
       <c r="F51" t="n">
-        <v>98.47158469999999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="52">
@@ -1570,16 +1570,16 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>1972</v>
+        <v>1971</v>
       </c>
       <c r="D52" t="n">
-        <v>104.8386686</v>
+        <v>103.7109657</v>
       </c>
       <c r="E52" t="n">
-        <v>114.4042346</v>
+        <v>109.7304737</v>
       </c>
       <c r="F52" t="n">
-        <v>96.1006915</v>
+        <v>98.47158469999999</v>
       </c>
     </row>
     <row r="53">
@@ -1592,16 +1592,16 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="D53" t="n">
-        <v>104.1134016</v>
+        <v>104.8386686</v>
       </c>
       <c r="E53" t="n">
-        <v>114.8096754</v>
+        <v>114.4042346</v>
       </c>
       <c r="F53" t="n">
-        <v>93.62044299999999</v>
+        <v>96.1006915</v>
       </c>
     </row>
     <row r="54">
@@ -1614,16 +1614,16 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="D54" t="n">
-        <v>104.9811427</v>
+        <v>104.1134016</v>
       </c>
       <c r="E54" t="n">
-        <v>116.5759634</v>
+        <v>114.8096754</v>
       </c>
       <c r="F54" t="n">
-        <v>93.8732991</v>
+        <v>93.62044299999999</v>
       </c>
     </row>
     <row r="55">
@@ -1636,16 +1636,16 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="D55" t="n">
-        <v>105.9803663</v>
+        <v>104.9811427</v>
       </c>
       <c r="E55" t="n">
-        <v>118.4052305</v>
+        <v>116.5759634</v>
       </c>
       <c r="F55" t="n">
-        <v>94.3320861</v>
+        <v>93.8732991</v>
       </c>
     </row>
     <row r="56">
@@ -1658,16 +1658,16 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="D56" t="n">
-        <v>106.0154597</v>
+        <v>105.9803663</v>
       </c>
       <c r="E56" t="n">
-        <v>119.127385</v>
+        <v>118.4052305</v>
       </c>
       <c r="F56" t="n">
-        <v>93.9715527</v>
+        <v>94.3320861</v>
       </c>
     </row>
     <row r="57">
@@ -1680,16 +1680,16 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="D57" t="n">
-        <v>104.1612733</v>
+        <v>106.0154597</v>
       </c>
       <c r="E57" t="n">
-        <v>117.261797</v>
+        <v>119.127385</v>
       </c>
       <c r="F57" t="n">
-        <v>92.1532313</v>
+        <v>93.9715527</v>
       </c>
     </row>
     <row r="58">
@@ -1702,16 +1702,16 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="D58" t="n">
-        <v>102.561853</v>
+        <v>104.1612733</v>
       </c>
       <c r="E58" t="n">
-        <v>115.7286946</v>
+        <v>117.261797</v>
       </c>
       <c r="F58" t="n">
-        <v>90.4999924</v>
+        <v>92.1532313</v>
       </c>
     </row>
     <row r="59">
@@ -1724,16 +1724,16 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="D59" t="n">
-        <v>101.4466364</v>
+        <v>102.561853</v>
       </c>
       <c r="E59" t="n">
-        <v>114.7537338</v>
+        <v>115.7286946</v>
       </c>
       <c r="F59" t="n">
-        <v>89.247058</v>
+        <v>90.4999924</v>
       </c>
     </row>
     <row r="60">
@@ -1746,16 +1746,16 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="D60" t="n">
-        <v>100.6715203</v>
+        <v>101.4466364</v>
       </c>
       <c r="E60" t="n">
-        <v>114.1953561</v>
+        <v>114.7537338</v>
       </c>
       <c r="F60" t="n">
-        <v>88.3268142</v>
+        <v>89.247058</v>
       </c>
     </row>
     <row r="61">
@@ -1768,16 +1768,16 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="D61" t="n">
-        <v>99.0261526</v>
+        <v>100.6715203</v>
       </c>
       <c r="E61" t="n">
-        <v>112.6576649</v>
+        <v>114.1953561</v>
       </c>
       <c r="F61" t="n">
-        <v>86.63039999999999</v>
+        <v>88.3268142</v>
       </c>
     </row>
     <row r="62">
@@ -1790,16 +1790,16 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="D62" t="n">
-        <v>96.7173069</v>
+        <v>99.0261526</v>
       </c>
       <c r="E62" t="n">
-        <v>110.3665504</v>
+        <v>112.6576649</v>
       </c>
       <c r="F62" t="n">
-        <v>84.3433102</v>
+        <v>86.63039999999999</v>
       </c>
     </row>
     <row r="63">
@@ -1812,16 +1812,16 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="D63" t="n">
-        <v>93.70902719999999</v>
+        <v>96.7173069</v>
       </c>
       <c r="E63" t="n">
-        <v>107.2534865</v>
+        <v>110.3665504</v>
       </c>
       <c r="F63" t="n">
-        <v>81.4814909</v>
+        <v>84.3433102</v>
       </c>
     </row>
     <row r="64">
@@ -1834,16 +1834,16 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="D64" t="n">
-        <v>92.2515952</v>
+        <v>93.70902719999999</v>
       </c>
       <c r="E64" t="n">
-        <v>106.7065431</v>
+        <v>107.2534865</v>
       </c>
       <c r="F64" t="n">
-        <v>79.4789481</v>
+        <v>81.4814909</v>
       </c>
     </row>
     <row r="65">
@@ -1856,16 +1856,16 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="D65" t="n">
-        <v>92.4585355</v>
+        <v>92.2515952</v>
       </c>
       <c r="E65" t="n">
-        <v>108.6619537</v>
+        <v>106.7065431</v>
       </c>
       <c r="F65" t="n">
-        <v>78.4923531</v>
+        <v>79.4789481</v>
       </c>
     </row>
     <row r="66">
@@ -1878,16 +1878,16 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="D66" t="n">
-        <v>94.2524124</v>
+        <v>92.4585355</v>
       </c>
       <c r="E66" t="n">
-        <v>113.6544225</v>
+        <v>108.6619537</v>
       </c>
       <c r="F66" t="n">
-        <v>78.2645522</v>
+        <v>78.4923531</v>
       </c>
     </row>
     <row r="67">
@@ -1900,16 +1900,16 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="D67" t="n">
-        <v>94.7575872</v>
+        <v>94.2524124</v>
       </c>
       <c r="E67" t="n">
-        <v>116.5778076</v>
+        <v>113.6544225</v>
       </c>
       <c r="F67" t="n">
-        <v>77.4200407</v>
+        <v>78.2645522</v>
       </c>
     </row>
     <row r="68">
@@ -1922,16 +1922,16 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="D68" t="n">
-        <v>94.4038539</v>
+        <v>94.7575872</v>
       </c>
       <c r="E68" t="n">
-        <v>118.0132323</v>
+        <v>116.5778076</v>
       </c>
       <c r="F68" t="n">
-        <v>76.2228167</v>
+        <v>77.4200407</v>
       </c>
     </row>
     <row r="69">
@@ -1944,16 +1944,16 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="D69" t="n">
-        <v>93.0612438</v>
+        <v>94.4038539</v>
       </c>
       <c r="E69" t="n">
-        <v>117.2725294</v>
+        <v>118.0132323</v>
       </c>
       <c r="F69" t="n">
-        <v>74.679108</v>
+        <v>76.2228167</v>
       </c>
     </row>
     <row r="70">
@@ -1966,16 +1966,16 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="D70" t="n">
-        <v>90.0934888</v>
+        <v>93.0612438</v>
       </c>
       <c r="E70" t="n">
-        <v>114.6996813</v>
+        <v>117.2725294</v>
       </c>
       <c r="F70" t="n">
-        <v>71.5425932</v>
+        <v>74.679108</v>
       </c>
     </row>
     <row r="71">
@@ -1988,16 +1988,16 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="D71" t="n">
-        <v>86.5267314</v>
+        <v>90.0934888</v>
       </c>
       <c r="E71" t="n">
-        <v>111.541443</v>
+        <v>114.6996813</v>
       </c>
       <c r="F71" t="n">
-        <v>67.8338584</v>
+        <v>71.5425932</v>
       </c>
     </row>
     <row r="72">
@@ -2010,16 +2010,16 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="D72" t="n">
-        <v>82.8573325</v>
+        <v>86.5267314</v>
       </c>
       <c r="E72" t="n">
-        <v>108.1992687</v>
+        <v>111.541443</v>
       </c>
       <c r="F72" t="n">
-        <v>64.0907559</v>
+        <v>67.8338584</v>
       </c>
     </row>
     <row r="73">
@@ -2032,16 +2032,16 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="D73" t="n">
-        <v>78.792209</v>
+        <v>82.8573325</v>
       </c>
       <c r="E73" t="n">
-        <v>104.0178858</v>
+        <v>108.1992687</v>
       </c>
       <c r="F73" t="n">
-        <v>60.28006</v>
+        <v>64.0907559</v>
       </c>
     </row>
     <row r="74">
@@ -2054,16 +2054,16 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="D74" t="n">
-        <v>75.6363913</v>
+        <v>78.792209</v>
       </c>
       <c r="E74" t="n">
-        <v>100.8917021</v>
+        <v>104.0178858</v>
       </c>
       <c r="F74" t="n">
-        <v>57.1585417</v>
+        <v>60.28006</v>
       </c>
     </row>
     <row r="75">
@@ -2076,16 +2076,16 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="D75" t="n">
-        <v>72.3442216</v>
+        <v>75.6363913</v>
       </c>
       <c r="E75" t="n">
-        <v>97.4930493</v>
+        <v>100.8917021</v>
       </c>
       <c r="F75" t="n">
-        <v>54.0732205</v>
+        <v>57.1585417</v>
       </c>
     </row>
     <row r="76">
@@ -2098,16 +2098,16 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="D76" t="n">
-        <v>70.8067779</v>
+        <v>72.3442216</v>
       </c>
       <c r="E76" t="n">
-        <v>96.0636234</v>
+        <v>97.4930493</v>
       </c>
       <c r="F76" t="n">
-        <v>52.5069183</v>
+        <v>54.0732205</v>
       </c>
     </row>
     <row r="77">
@@ -2120,16 +2120,16 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="D77" t="n">
-        <v>68.9327964</v>
+        <v>70.8067779</v>
       </c>
       <c r="E77" t="n">
-        <v>94.2172288</v>
+        <v>96.0636234</v>
       </c>
       <c r="F77" t="n">
-        <v>50.775835</v>
+        <v>52.5069183</v>
       </c>
     </row>
     <row r="78">
@@ -2142,16 +2142,16 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="D78" t="n">
-        <v>66.6941388</v>
+        <v>68.9327964</v>
       </c>
       <c r="E78" t="n">
-        <v>91.7990418</v>
+        <v>94.2172288</v>
       </c>
       <c r="F78" t="n">
-        <v>48.7455506</v>
+        <v>50.775835</v>
       </c>
     </row>
     <row r="79">
@@ -2164,16 +2164,16 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="D79" t="n">
-        <v>64.50407250000001</v>
+        <v>66.6941388</v>
       </c>
       <c r="E79" t="n">
-        <v>89.5184672</v>
+        <v>91.7990418</v>
       </c>
       <c r="F79" t="n">
-        <v>46.8050059</v>
+        <v>48.7455506</v>
       </c>
     </row>
     <row r="80">
@@ -2186,16 +2186,16 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="D80" t="n">
-        <v>62.2660213</v>
+        <v>64.50407250000001</v>
       </c>
       <c r="E80" t="n">
-        <v>86.9365061</v>
+        <v>89.5184672</v>
       </c>
       <c r="F80" t="n">
-        <v>44.9240562</v>
+        <v>46.8050059</v>
       </c>
     </row>
     <row r="81">
@@ -2208,16 +2208,16 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="D81" t="n">
-        <v>61.2744996</v>
+        <v>62.2660213</v>
       </c>
       <c r="E81" t="n">
-        <v>85.81131929999999</v>
+        <v>86.9365061</v>
       </c>
       <c r="F81" t="n">
-        <v>43.9874959</v>
+        <v>44.9240562</v>
       </c>
     </row>
     <row r="82">
@@ -2230,16 +2230,16 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="D82" t="n">
-        <v>61.505192</v>
+        <v>61.2744996</v>
       </c>
       <c r="E82" t="n">
-        <v>86.175133</v>
+        <v>85.81131929999999</v>
       </c>
       <c r="F82" t="n">
-        <v>43.9999318</v>
+        <v>43.9874959</v>
       </c>
     </row>
     <row r="83">
@@ -2252,16 +2252,16 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="D83" t="n">
-        <v>62.2018732</v>
+        <v>61.505192</v>
       </c>
       <c r="E83" t="n">
-        <v>87.21953240000001</v>
+        <v>86.175133</v>
       </c>
       <c r="F83" t="n">
-        <v>44.3281634</v>
+        <v>43.9999318</v>
       </c>
     </row>
     <row r="84">
@@ -2274,16 +2274,16 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="D84" t="n">
-        <v>63.0619512</v>
+        <v>62.2018732</v>
       </c>
       <c r="E84" t="n">
-        <v>88.82841980000001</v>
+        <v>87.21953240000001</v>
       </c>
       <c r="F84" t="n">
-        <v>44.8176257</v>
+        <v>44.3281634</v>
       </c>
     </row>
     <row r="85">
@@ -2296,16 +2296,16 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="D85" t="n">
-        <v>62.8762271</v>
+        <v>63.0619512</v>
       </c>
       <c r="E85" t="n">
-        <v>89.29610169999999</v>
+        <v>88.82841980000001</v>
       </c>
       <c r="F85" t="n">
-        <v>44.5008295</v>
+        <v>44.8176257</v>
       </c>
     </row>
     <row r="86">
@@ -2318,16 +2318,16 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="D86" t="n">
-        <v>62.6798659</v>
+        <v>62.8762271</v>
       </c>
       <c r="E86" t="n">
-        <v>89.8509736</v>
+        <v>89.29610169999999</v>
       </c>
       <c r="F86" t="n">
-        <v>44.0991295</v>
+        <v>44.5008295</v>
       </c>
     </row>
     <row r="87">
@@ -2340,16 +2340,16 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="D87" t="n">
-        <v>59.9801206</v>
+        <v>62.6798659</v>
       </c>
       <c r="E87" t="n">
-        <v>86.90742</v>
+        <v>89.8509736</v>
       </c>
       <c r="F87" t="n">
-        <v>41.7373561</v>
+        <v>44.0991295</v>
       </c>
     </row>
     <row r="88">
@@ -2362,16 +2362,16 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="D88" t="n">
-        <v>55.8495942</v>
+        <v>59.9801206</v>
       </c>
       <c r="E88" t="n">
-        <v>81.72202</v>
+        <v>86.90742</v>
       </c>
       <c r="F88" t="n">
-        <v>38.40117</v>
+        <v>41.7373561</v>
       </c>
     </row>
     <row r="89">
@@ -2384,16 +2384,16 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="D89" t="n">
-        <v>50.0529029</v>
+        <v>55.8495942</v>
       </c>
       <c r="E89" t="n">
-        <v>74.3028999</v>
+        <v>81.72202</v>
       </c>
       <c r="F89" t="n">
-        <v>33.8852926</v>
+        <v>38.40117</v>
       </c>
     </row>
     <row r="90">
@@ -2406,16 +2406,16 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="D90" t="n">
-        <v>46.7976584</v>
+        <v>50.0529029</v>
       </c>
       <c r="E90" t="n">
-        <v>70.7637296</v>
+        <v>74.3028999</v>
       </c>
       <c r="F90" t="n">
-        <v>31.1540423</v>
+        <v>33.8852926</v>
       </c>
     </row>
     <row r="91">
@@ -2428,16 +2428,16 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="D91" t="n">
-        <v>44.4239072</v>
+        <v>46.7976584</v>
       </c>
       <c r="E91" t="n">
-        <v>68.6120131</v>
+        <v>70.7637296</v>
       </c>
       <c r="F91" t="n">
-        <v>28.9230303</v>
+        <v>31.1540423</v>
       </c>
     </row>
     <row r="92">
@@ -2450,16 +2450,16 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="D92" t="n">
-        <v>43.9966301</v>
+        <v>44.4239072</v>
       </c>
       <c r="E92" t="n">
-        <v>69.18258230000001</v>
+        <v>68.6120131</v>
       </c>
       <c r="F92" t="n">
-        <v>28.0506423</v>
+        <v>28.9230303</v>
       </c>
     </row>
     <row r="93">
@@ -2472,16 +2472,16 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="D93" t="n">
-        <v>44.6490574</v>
+        <v>43.9966301</v>
       </c>
       <c r="E93" t="n">
-        <v>71.0942926</v>
+        <v>69.18258230000001</v>
       </c>
       <c r="F93" t="n">
-        <v>27.924296</v>
+        <v>28.0506423</v>
       </c>
     </row>
     <row r="94">
@@ -2494,16 +2494,16 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="D94" t="n">
-        <v>45.9181376</v>
+        <v>44.6490574</v>
       </c>
       <c r="E94" t="n">
-        <v>73.70648079999999</v>
+        <v>71.0942926</v>
       </c>
       <c r="F94" t="n">
-        <v>28.4238921</v>
+        <v>27.924296</v>
       </c>
     </row>
     <row r="95">
@@ -2516,16 +2516,16 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="D95" t="n">
-        <v>46.883876</v>
+        <v>45.9181376</v>
       </c>
       <c r="E95" t="n">
-        <v>75.92751699999999</v>
+        <v>73.70648079999999</v>
       </c>
       <c r="F95" t="n">
-        <v>28.7416192</v>
+        <v>28.4238921</v>
       </c>
     </row>
     <row r="96">
@@ -2538,16 +2538,16 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="D96" t="n">
-        <v>44.7551455</v>
+        <v>46.883876</v>
       </c>
       <c r="E96" t="n">
-        <v>73.1446444</v>
+        <v>75.92751699999999</v>
       </c>
       <c r="F96" t="n">
-        <v>27.2450971</v>
+        <v>28.7416192</v>
       </c>
     </row>
     <row r="97">
@@ -2560,16 +2560,16 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D97" t="n">
-        <v>44.3357649</v>
+        <v>44.7551455</v>
       </c>
       <c r="E97" t="n">
-        <v>73.0372291</v>
+        <v>73.1446444</v>
       </c>
       <c r="F97" t="n">
-        <v>26.8411588</v>
+        <v>27.2450971</v>
       </c>
     </row>
     <row r="98">
@@ -2582,16 +2582,16 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="D98" t="n">
-        <v>44.6796495</v>
+        <v>44.3357649</v>
       </c>
       <c r="E98" t="n">
-        <v>74.0307893</v>
+        <v>73.0372291</v>
       </c>
       <c r="F98" t="n">
-        <v>26.983685</v>
+        <v>26.8411588</v>
       </c>
     </row>
     <row r="99">
@@ -2600,20 +2600,20 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Europe and Central Asia</t>
+          <t>Asia and Pacific</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>1970</v>
+        <v>2018</v>
       </c>
       <c r="D99" t="n">
-        <v>100</v>
+        <v>44.6796495</v>
       </c>
       <c r="E99" t="n">
-        <v>100</v>
+        <v>74.0307893</v>
       </c>
       <c r="F99" t="n">
-        <v>100</v>
+        <v>26.983685</v>
       </c>
     </row>
     <row r="100">
@@ -2626,16 +2626,16 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>1971</v>
+        <v>1970</v>
       </c>
       <c r="D100" t="n">
-        <v>101.2722582</v>
+        <v>100</v>
       </c>
       <c r="E100" t="n">
-        <v>103.9584249</v>
+        <v>100</v>
       </c>
       <c r="F100" t="n">
-        <v>98.8250018</v>
+        <v>100</v>
       </c>
     </row>
     <row r="101">
@@ -2648,16 +2648,16 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>1972</v>
+        <v>1971</v>
       </c>
       <c r="D101" t="n">
-        <v>103.2878696</v>
+        <v>101.2722582</v>
       </c>
       <c r="E101" t="n">
-        <v>108.0054132</v>
+        <v>103.9584249</v>
       </c>
       <c r="F101" t="n">
-        <v>99.0272485</v>
+        <v>98.8250018</v>
       </c>
     </row>
     <row r="102">
@@ -2670,16 +2670,16 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="D102" t="n">
-        <v>105.6278309</v>
+        <v>103.2878696</v>
       </c>
       <c r="E102" t="n">
-        <v>111.6047687</v>
+        <v>108.0054132</v>
       </c>
       <c r="F102" t="n">
-        <v>100.2073015</v>
+        <v>99.0272485</v>
       </c>
     </row>
     <row r="103">
@@ -2692,16 +2692,16 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="D103" t="n">
-        <v>107.5769485</v>
+        <v>105.6278309</v>
       </c>
       <c r="E103" t="n">
-        <v>114.5981476</v>
+        <v>111.6047687</v>
       </c>
       <c r="F103" t="n">
-        <v>101.1858144</v>
+        <v>100.2073015</v>
       </c>
     </row>
     <row r="104">
@@ -2714,16 +2714,16 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="D104" t="n">
-        <v>108.685179</v>
+        <v>107.5769485</v>
       </c>
       <c r="E104" t="n">
-        <v>116.5980066</v>
+        <v>114.5981476</v>
       </c>
       <c r="F104" t="n">
-        <v>101.3882023</v>
+        <v>101.1858144</v>
       </c>
     </row>
     <row r="105">
@@ -2736,16 +2736,16 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="D105" t="n">
-        <v>109.4471862</v>
+        <v>108.685179</v>
       </c>
       <c r="E105" t="n">
-        <v>118.5310152</v>
+        <v>116.5980066</v>
       </c>
       <c r="F105" t="n">
-        <v>101.0193852</v>
+        <v>101.3882023</v>
       </c>
     </row>
     <row r="106">
@@ -2758,16 +2758,16 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="D106" t="n">
-        <v>110.9426994</v>
+        <v>109.4471862</v>
       </c>
       <c r="E106" t="n">
-        <v>121.2312018</v>
+        <v>118.5310152</v>
       </c>
       <c r="F106" t="n">
-        <v>101.316498</v>
+        <v>101.0193852</v>
       </c>
     </row>
     <row r="107">
@@ -2780,16 +2780,16 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="D107" t="n">
-        <v>112.8089544</v>
+        <v>110.9426994</v>
       </c>
       <c r="E107" t="n">
-        <v>124.2297595</v>
+        <v>121.2312018</v>
       </c>
       <c r="F107" t="n">
-        <v>102.208653</v>
+        <v>101.316498</v>
       </c>
     </row>
     <row r="108">
@@ -2802,16 +2802,16 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="D108" t="n">
-        <v>113.8832152</v>
+        <v>112.8089544</v>
       </c>
       <c r="E108" t="n">
-        <v>125.9256084</v>
+        <v>124.2297595</v>
       </c>
       <c r="F108" t="n">
-        <v>102.753468</v>
+        <v>102.208653</v>
       </c>
     </row>
     <row r="109">
@@ -2824,16 +2824,16 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="D109" t="n">
-        <v>113.8179769</v>
+        <v>113.8832152</v>
       </c>
       <c r="E109" t="n">
-        <v>126.327688</v>
+        <v>125.9256084</v>
       </c>
       <c r="F109" t="n">
-        <v>102.3677644</v>
+        <v>102.753468</v>
       </c>
     </row>
     <row r="110">
@@ -2846,16 +2846,16 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="D110" t="n">
-        <v>113.0956011</v>
+        <v>113.8179769</v>
       </c>
       <c r="E110" t="n">
-        <v>125.8976118</v>
+        <v>126.327688</v>
       </c>
       <c r="F110" t="n">
-        <v>101.3732967</v>
+        <v>102.3677644</v>
       </c>
     </row>
     <row r="111">
@@ -2868,16 +2868,16 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="D111" t="n">
-        <v>113.4491216</v>
+        <v>113.0956011</v>
       </c>
       <c r="E111" t="n">
-        <v>126.8461861</v>
+        <v>125.8976118</v>
       </c>
       <c r="F111" t="n">
-        <v>101.3401727</v>
+        <v>101.3732967</v>
       </c>
     </row>
     <row r="112">
@@ -2890,16 +2890,16 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="D112" t="n">
-        <v>112.0039122</v>
+        <v>113.4491216</v>
       </c>
       <c r="E112" t="n">
-        <v>126.1667367</v>
+        <v>126.8461861</v>
       </c>
       <c r="F112" t="n">
-        <v>99.29669920000001</v>
+        <v>101.3401727</v>
       </c>
     </row>
     <row r="113">
@@ -2912,16 +2912,16 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="D113" t="n">
-        <v>112.0508611</v>
+        <v>112.0039122</v>
       </c>
       <c r="E113" t="n">
-        <v>127.275558</v>
+        <v>126.1667367</v>
       </c>
       <c r="F113" t="n">
-        <v>98.5575496</v>
+        <v>99.29669920000001</v>
       </c>
     </row>
     <row r="114">
@@ -2934,16 +2934,16 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="D114" t="n">
-        <v>111.9430216</v>
+        <v>112.0508611</v>
       </c>
       <c r="E114" t="n">
-        <v>128.0199074</v>
+        <v>127.275558</v>
       </c>
       <c r="F114" t="n">
-        <v>97.7501365</v>
+        <v>98.5575496</v>
       </c>
     </row>
     <row r="115">
@@ -2956,16 +2956,16 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="D115" t="n">
-        <v>113.9536756</v>
+        <v>111.9430216</v>
       </c>
       <c r="E115" t="n">
-        <v>130.8341584</v>
+        <v>128.0199074</v>
       </c>
       <c r="F115" t="n">
-        <v>99.13698719999999</v>
+        <v>97.7501365</v>
       </c>
     </row>
     <row r="116">
@@ -2978,16 +2978,16 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="D116" t="n">
-        <v>116.7714251</v>
+        <v>113.9536756</v>
       </c>
       <c r="E116" t="n">
-        <v>134.6301499</v>
+        <v>130.8341584</v>
       </c>
       <c r="F116" t="n">
-        <v>101.1730424</v>
+        <v>99.13698719999999</v>
       </c>
     </row>
     <row r="117">
@@ -3000,16 +3000,16 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="D117" t="n">
-        <v>121.412525</v>
+        <v>116.7714251</v>
       </c>
       <c r="E117" t="n">
-        <v>140.5840394</v>
+        <v>134.6301499</v>
       </c>
       <c r="F117" t="n">
-        <v>104.8039598</v>
+        <v>101.1730424</v>
       </c>
     </row>
     <row r="118">
@@ -3022,16 +3022,16 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="D118" t="n">
-        <v>126.9586022</v>
+        <v>121.412525</v>
       </c>
       <c r="E118" t="n">
-        <v>147.5154891</v>
+        <v>140.5840394</v>
       </c>
       <c r="F118" t="n">
-        <v>109.2734967</v>
+        <v>104.8039598</v>
       </c>
     </row>
     <row r="119">
@@ -3044,16 +3044,16 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="D119" t="n">
-        <v>130.5446892</v>
+        <v>126.9586022</v>
       </c>
       <c r="E119" t="n">
-        <v>152.0178686</v>
+        <v>147.5154891</v>
       </c>
       <c r="F119" t="n">
-        <v>112.1429939</v>
+        <v>109.2734967</v>
       </c>
     </row>
     <row r="120">
@@ -3066,16 +3066,16 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="D120" t="n">
-        <v>130.7410732</v>
+        <v>130.5446892</v>
       </c>
       <c r="E120" t="n">
-        <v>152.5705764</v>
+        <v>152.0178686</v>
       </c>
       <c r="F120" t="n">
-        <v>112.1332247</v>
+        <v>112.1429939</v>
       </c>
     </row>
     <row r="121">
@@ -3088,16 +3088,16 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="D121" t="n">
-        <v>128.747907</v>
+        <v>130.7410732</v>
       </c>
       <c r="E121" t="n">
-        <v>150.5780109</v>
+        <v>152.5705764</v>
       </c>
       <c r="F121" t="n">
-        <v>110.2105914</v>
+        <v>112.1332247</v>
       </c>
     </row>
     <row r="122">
@@ -3110,16 +3110,16 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="D122" t="n">
-        <v>125.2536173</v>
+        <v>128.747907</v>
       </c>
       <c r="E122" t="n">
-        <v>146.9269857</v>
+        <v>150.5780109</v>
       </c>
       <c r="F122" t="n">
-        <v>106.9500174</v>
+        <v>110.2105914</v>
       </c>
     </row>
     <row r="123">
@@ -3132,16 +3132,16 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="D123" t="n">
-        <v>121.7116178</v>
+        <v>125.2536173</v>
       </c>
       <c r="E123" t="n">
-        <v>143.1587774</v>
+        <v>146.9269857</v>
       </c>
       <c r="F123" t="n">
-        <v>103.5898096</v>
+        <v>106.9500174</v>
       </c>
     </row>
     <row r="124">
@@ -3154,16 +3154,16 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="D124" t="n">
-        <v>118.5171294</v>
+        <v>121.7116178</v>
       </c>
       <c r="E124" t="n">
-        <v>139.7615661</v>
+        <v>143.1587774</v>
       </c>
       <c r="F124" t="n">
-        <v>100.5811968</v>
+        <v>103.5898096</v>
       </c>
     </row>
     <row r="125">
@@ -3176,16 +3176,16 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="D125" t="n">
-        <v>114.8186807</v>
+        <v>118.5171294</v>
       </c>
       <c r="E125" t="n">
-        <v>135.8134563</v>
+        <v>139.7615661</v>
       </c>
       <c r="F125" t="n">
-        <v>97.1465646</v>
+        <v>100.5811968</v>
       </c>
     </row>
     <row r="126">
@@ -3198,16 +3198,16 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="D126" t="n">
-        <v>111.9247676</v>
+        <v>114.8186807</v>
       </c>
       <c r="E126" t="n">
-        <v>132.7946558</v>
+        <v>135.8134563</v>
       </c>
       <c r="F126" t="n">
-        <v>94.5032375</v>
+        <v>97.1465646</v>
       </c>
     </row>
     <row r="127">
@@ -3220,16 +3220,16 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="D127" t="n">
-        <v>109.0750407</v>
+        <v>111.9247676</v>
       </c>
       <c r="E127" t="n">
-        <v>129.8378538</v>
+        <v>132.7946558</v>
       </c>
       <c r="F127" t="n">
-        <v>91.8621212</v>
+        <v>94.5032375</v>
       </c>
     </row>
     <row r="128">
@@ -3242,16 +3242,16 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="D128" t="n">
-        <v>107.3508444</v>
+        <v>109.0750407</v>
       </c>
       <c r="E128" t="n">
-        <v>128.1865327</v>
+        <v>129.8378538</v>
       </c>
       <c r="F128" t="n">
-        <v>90.1912588</v>
+        <v>91.8621212</v>
       </c>
     </row>
     <row r="129">
@@ -3264,16 +3264,16 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="D129" t="n">
-        <v>106.4591622</v>
+        <v>107.3508444</v>
       </c>
       <c r="E129" t="n">
-        <v>127.4880733</v>
+        <v>128.1865327</v>
       </c>
       <c r="F129" t="n">
-        <v>89.2322231</v>
+        <v>90.1912588</v>
       </c>
     </row>
     <row r="130">
@@ -3286,16 +3286,16 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="D130" t="n">
-        <v>105.061322</v>
+        <v>106.4591622</v>
       </c>
       <c r="E130" t="n">
-        <v>126.3327802</v>
+        <v>127.4880733</v>
       </c>
       <c r="F130" t="n">
-        <v>87.6827807</v>
+        <v>89.2322231</v>
       </c>
     </row>
     <row r="131">
@@ -3308,16 +3308,16 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="D131" t="n">
-        <v>104.7533639</v>
+        <v>105.061322</v>
       </c>
       <c r="E131" t="n">
-        <v>126.5074104</v>
+        <v>126.3327802</v>
       </c>
       <c r="F131" t="n">
-        <v>87.07336669999999</v>
+        <v>87.6827807</v>
       </c>
     </row>
     <row r="132">
@@ -3330,16 +3330,16 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="D132" t="n">
-        <v>104.1609588</v>
+        <v>104.7533639</v>
       </c>
       <c r="E132" t="n">
-        <v>126.2877376</v>
+        <v>126.5074104</v>
       </c>
       <c r="F132" t="n">
-        <v>86.1632553</v>
+        <v>87.07336669999999</v>
       </c>
     </row>
     <row r="133">
@@ -3352,16 +3352,16 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="D133" t="n">
-        <v>104.877104</v>
+        <v>104.1609588</v>
       </c>
       <c r="E133" t="n">
-        <v>127.4069012</v>
+        <v>126.2877376</v>
       </c>
       <c r="F133" t="n">
-        <v>86.5588879</v>
+        <v>86.1632553</v>
       </c>
     </row>
     <row r="134">
@@ -3374,16 +3374,16 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="D134" t="n">
-        <v>105.4472695</v>
+        <v>104.877104</v>
       </c>
       <c r="E134" t="n">
-        <v>128.3443211</v>
+        <v>127.4069012</v>
       </c>
       <c r="F134" t="n">
-        <v>86.83479060000001</v>
+        <v>86.5588879</v>
       </c>
     </row>
     <row r="135">
@@ -3396,16 +3396,16 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="D135" t="n">
-        <v>105.8301552</v>
+        <v>105.4472695</v>
       </c>
       <c r="E135" t="n">
-        <v>129.1326362</v>
+        <v>128.3443211</v>
       </c>
       <c r="F135" t="n">
-        <v>87.0449574</v>
+        <v>86.83479060000001</v>
       </c>
     </row>
     <row r="136">
@@ -3418,16 +3418,16 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="D136" t="n">
-        <v>105.5778277</v>
+        <v>105.8301552</v>
       </c>
       <c r="E136" t="n">
-        <v>129.0533214</v>
+        <v>129.1326362</v>
       </c>
       <c r="F136" t="n">
-        <v>86.6466724</v>
+        <v>87.0449574</v>
       </c>
     </row>
     <row r="137">
@@ -3440,16 +3440,16 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="D137" t="n">
-        <v>104.4336198</v>
+        <v>105.5778277</v>
       </c>
       <c r="E137" t="n">
-        <v>128.3889001</v>
+        <v>129.0533214</v>
       </c>
       <c r="F137" t="n">
-        <v>85.35068939999999</v>
+        <v>86.6466724</v>
       </c>
     </row>
     <row r="138">
@@ -3462,16 +3462,16 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="D138" t="n">
-        <v>104.4281631</v>
+        <v>104.4336198</v>
       </c>
       <c r="E138" t="n">
-        <v>129.7232047</v>
+        <v>128.3889001</v>
       </c>
       <c r="F138" t="n">
-        <v>84.4323425</v>
+        <v>85.35068939999999</v>
       </c>
     </row>
     <row r="139">
@@ -3484,16 +3484,16 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="D139" t="n">
-        <v>105.5393204</v>
+        <v>104.4281631</v>
       </c>
       <c r="E139" t="n">
-        <v>132.8543708</v>
+        <v>129.7232047</v>
       </c>
       <c r="F139" t="n">
-        <v>84.3570096</v>
+        <v>84.4323425</v>
       </c>
     </row>
     <row r="140">
@@ -3506,16 +3506,16 @@
         </is>
       </c>
       <c r="C140" t="n">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="D140" t="n">
-        <v>103.0181055</v>
+        <v>105.5393204</v>
       </c>
       <c r="E140" t="n">
-        <v>131.1175941</v>
+        <v>132.8543708</v>
       </c>
       <c r="F140" t="n">
-        <v>81.3841499</v>
+        <v>84.3570096</v>
       </c>
     </row>
     <row r="141">
@@ -3528,16 +3528,16 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="D141" t="n">
-        <v>98.60530919999999</v>
+        <v>103.0181055</v>
       </c>
       <c r="E141" t="n">
-        <v>126.8913735</v>
+        <v>131.1175941</v>
       </c>
       <c r="F141" t="n">
-        <v>77.09068550000001</v>
+        <v>81.3841499</v>
       </c>
     </row>
     <row r="142">
@@ -3550,16 +3550,16 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="D142" t="n">
-        <v>92.2752804</v>
+        <v>98.60530919999999</v>
       </c>
       <c r="E142" t="n">
-        <v>119.9745179</v>
+        <v>126.8913735</v>
       </c>
       <c r="F142" t="n">
-        <v>71.4164488</v>
+        <v>77.09068550000001</v>
       </c>
     </row>
     <row r="143">
@@ -3572,16 +3572,16 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="D143" t="n">
-        <v>90.6011161</v>
+        <v>92.2752804</v>
       </c>
       <c r="E143" t="n">
-        <v>119.6206554</v>
+        <v>119.9745179</v>
       </c>
       <c r="F143" t="n">
-        <v>68.8711134</v>
+        <v>71.4164488</v>
       </c>
     </row>
     <row r="144">
@@ -3594,16 +3594,16 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="D144" t="n">
-        <v>88.42974359999999</v>
+        <v>90.6011161</v>
       </c>
       <c r="E144" t="n">
-        <v>118.1770235</v>
+        <v>119.6206554</v>
       </c>
       <c r="F144" t="n">
-        <v>66.1678605</v>
+        <v>68.8711134</v>
       </c>
     </row>
     <row r="145">
@@ -3616,16 +3616,16 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="D145" t="n">
-        <v>86.1145006</v>
+        <v>88.42974359999999</v>
       </c>
       <c r="E145" t="n">
-        <v>116.7181736</v>
+        <v>118.1770235</v>
       </c>
       <c r="F145" t="n">
-        <v>63.3799561</v>
+        <v>66.1678605</v>
       </c>
     </row>
     <row r="146">
@@ -3638,16 +3638,16 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D146" t="n">
-        <v>83.4874868</v>
+        <v>86.1145006</v>
       </c>
       <c r="E146" t="n">
-        <v>113.7750946</v>
+        <v>116.7181736</v>
       </c>
       <c r="F146" t="n">
-        <v>61.1813471</v>
+        <v>63.3799561</v>
       </c>
     </row>
     <row r="147">
@@ -3660,16 +3660,16 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="D147" t="n">
-        <v>82.2915342</v>
+        <v>83.4874868</v>
       </c>
       <c r="E147" t="n">
-        <v>112.5579258</v>
+        <v>113.7750946</v>
       </c>
       <c r="F147" t="n">
-        <v>60.2690734</v>
+        <v>61.1813471</v>
       </c>
     </row>
     <row r="148">
@@ -3678,20 +3678,20 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Freshwater</t>
+          <t>Europe and Central Asia</t>
         </is>
       </c>
       <c r="C148" t="n">
-        <v>1970</v>
+        <v>2018</v>
       </c>
       <c r="D148" t="n">
-        <v>100</v>
+        <v>82.2915342</v>
       </c>
       <c r="E148" t="n">
-        <v>100</v>
+        <v>112.5579258</v>
       </c>
       <c r="F148" t="n">
-        <v>100</v>
+        <v>60.2690734</v>
       </c>
     </row>
     <row r="149">
@@ -3704,16 +3704,16 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>1971</v>
+        <v>1970</v>
       </c>
       <c r="D149" t="n">
-        <v>98.293719</v>
+        <v>100</v>
       </c>
       <c r="E149" t="n">
-        <v>102.4784386</v>
+        <v>100</v>
       </c>
       <c r="F149" t="n">
-        <v>94.5666478</v>
+        <v>100</v>
       </c>
     </row>
     <row r="150">
@@ -3726,16 +3726,16 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>1972</v>
+        <v>1971</v>
       </c>
       <c r="D150" t="n">
-        <v>97.1892653</v>
+        <v>98.293719</v>
       </c>
       <c r="E150" t="n">
-        <v>103.8793042</v>
+        <v>102.4784386</v>
       </c>
       <c r="F150" t="n">
-        <v>91.1696611</v>
+        <v>94.5666478</v>
       </c>
     </row>
     <row r="151">
@@ -3748,16 +3748,16 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="D151" t="n">
-        <v>96.9687796</v>
+        <v>97.1892653</v>
       </c>
       <c r="E151" t="n">
-        <v>104.8540663</v>
+        <v>103.8793042</v>
       </c>
       <c r="F151" t="n">
-        <v>89.8240837</v>
+        <v>91.1696611</v>
       </c>
     </row>
     <row r="152">
@@ -3770,16 +3770,16 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="D152" t="n">
-        <v>94.1979449</v>
+        <v>96.9687796</v>
       </c>
       <c r="E152" t="n">
-        <v>103.6485519</v>
+        <v>104.8540663</v>
       </c>
       <c r="F152" t="n">
-        <v>85.5066625</v>
+        <v>89.8240837</v>
       </c>
     </row>
     <row r="153">
@@ -3792,16 +3792,16 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="D153" t="n">
-        <v>90.12309639999999</v>
+        <v>94.1979449</v>
       </c>
       <c r="E153" t="n">
-        <v>101.4260244</v>
+        <v>103.6485519</v>
       </c>
       <c r="F153" t="n">
-        <v>79.74659920000001</v>
+        <v>85.5066625</v>
       </c>
     </row>
     <row r="154">
@@ -3814,16 +3814,16 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="D154" t="n">
-        <v>85.9175801</v>
+        <v>90.12309639999999</v>
       </c>
       <c r="E154" t="n">
-        <v>98.7090293</v>
+        <v>101.4260244</v>
       </c>
       <c r="F154" t="n">
-        <v>74.14359469999999</v>
+        <v>79.74659920000001</v>
       </c>
     </row>
     <row r="155">
@@ -3836,16 +3836,16 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="D155" t="n">
-        <v>82.2131566</v>
+        <v>85.9175801</v>
       </c>
       <c r="E155" t="n">
-        <v>95.6380978</v>
+        <v>98.7090293</v>
       </c>
       <c r="F155" t="n">
-        <v>69.9702065</v>
+        <v>74.14359469999999</v>
       </c>
     </row>
     <row r="156">
@@ -3858,16 +3858,16 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="D156" t="n">
-        <v>78.7561764</v>
+        <v>82.2131566</v>
       </c>
       <c r="E156" t="n">
-        <v>92.4860341</v>
+        <v>95.6380978</v>
       </c>
       <c r="F156" t="n">
-        <v>66.39987669999999</v>
+        <v>69.9702065</v>
       </c>
     </row>
     <row r="157">
@@ -3880,16 +3880,16 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="D157" t="n">
-        <v>76.224954</v>
+        <v>78.7561764</v>
       </c>
       <c r="E157" t="n">
-        <v>90.8888029</v>
+        <v>92.4860341</v>
       </c>
       <c r="F157" t="n">
-        <v>63.4286911</v>
+        <v>66.39987669999999</v>
       </c>
     </row>
     <row r="158">
@@ -3902,16 +3902,16 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="D158" t="n">
-        <v>74.38991059999999</v>
+        <v>76.224954</v>
       </c>
       <c r="E158" t="n">
-        <v>90.41518550000001</v>
+        <v>90.8888029</v>
       </c>
       <c r="F158" t="n">
-        <v>60.8678951</v>
+        <v>63.4286911</v>
       </c>
     </row>
     <row r="159">
@@ -3924,16 +3924,16 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="D159" t="n">
-        <v>73.11066719999999</v>
+        <v>74.38991059999999</v>
       </c>
       <c r="E159" t="n">
-        <v>90.250657</v>
+        <v>90.41518550000001</v>
       </c>
       <c r="F159" t="n">
-        <v>59.0962419</v>
+        <v>60.8678951</v>
       </c>
     </row>
     <row r="160">
@@ -3946,16 +3946,16 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="D160" t="n">
-        <v>69.9692154</v>
+        <v>73.11066719999999</v>
       </c>
       <c r="E160" t="n">
-        <v>87.0822618</v>
+        <v>90.250657</v>
       </c>
       <c r="F160" t="n">
-        <v>56.1938078</v>
+        <v>59.0962419</v>
       </c>
     </row>
     <row r="161">
@@ -3968,16 +3968,16 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="D161" t="n">
-        <v>66.3032209</v>
+        <v>69.9692154</v>
       </c>
       <c r="E161" t="n">
-        <v>82.97846319999999</v>
+        <v>87.0822618</v>
       </c>
       <c r="F161" t="n">
-        <v>52.9584132</v>
+        <v>56.1938078</v>
       </c>
     </row>
     <row r="162">
@@ -3990,16 +3990,16 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="D162" t="n">
-        <v>62.9578217</v>
+        <v>66.3032209</v>
       </c>
       <c r="E162" t="n">
-        <v>79.3634804</v>
+        <v>82.97846319999999</v>
       </c>
       <c r="F162" t="n">
-        <v>49.8227522</v>
+        <v>52.9584132</v>
       </c>
     </row>
     <row r="163">
@@ -4012,16 +4012,16 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="D163" t="n">
-        <v>60.4836256</v>
+        <v>62.9578217</v>
       </c>
       <c r="E163" t="n">
-        <v>77.2210934</v>
+        <v>79.3634804</v>
       </c>
       <c r="F163" t="n">
-        <v>47.2789056</v>
+        <v>49.8227522</v>
       </c>
     </row>
     <row r="164">
@@ -4034,16 +4034,16 @@
         </is>
       </c>
       <c r="C164" t="n">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="D164" t="n">
-        <v>58.4069615</v>
+        <v>60.4836256</v>
       </c>
       <c r="E164" t="n">
-        <v>75.5401921</v>
+        <v>77.2210934</v>
       </c>
       <c r="F164" t="n">
-        <v>45.1760938</v>
+        <v>47.2789056</v>
       </c>
     </row>
     <row r="165">
@@ -4056,16 +4056,16 @@
         </is>
       </c>
       <c r="C165" t="n">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="D165" t="n">
-        <v>55.7055935</v>
+        <v>58.4069615</v>
       </c>
       <c r="E165" t="n">
-        <v>72.8741304</v>
+        <v>75.5401921</v>
       </c>
       <c r="F165" t="n">
-        <v>42.6939446</v>
+        <v>45.1760938</v>
       </c>
     </row>
     <row r="166">
@@ -4078,16 +4078,16 @@
         </is>
       </c>
       <c r="C166" t="n">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="D166" t="n">
-        <v>52.6319799</v>
+        <v>55.7055935</v>
       </c>
       <c r="E166" t="n">
-        <v>69.4390271</v>
+        <v>72.8741304</v>
       </c>
       <c r="F166" t="n">
-        <v>40.0698597</v>
+        <v>42.6939446</v>
       </c>
     </row>
     <row r="167">
@@ -4100,16 +4100,16 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="D167" t="n">
-        <v>51.0816621</v>
+        <v>52.6319799</v>
       </c>
       <c r="E167" t="n">
-        <v>67.77028319999999</v>
+        <v>69.4390271</v>
       </c>
       <c r="F167" t="n">
-        <v>38.7051854</v>
+        <v>40.0698597</v>
       </c>
     </row>
     <row r="168">
@@ -4122,16 +4122,16 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="D168" t="n">
-        <v>49.2790176</v>
+        <v>51.0816621</v>
       </c>
       <c r="E168" t="n">
-        <v>65.7095174</v>
+        <v>67.77028319999999</v>
       </c>
       <c r="F168" t="n">
-        <v>37.1783601</v>
+        <v>38.7051854</v>
       </c>
     </row>
     <row r="169">
@@ -4144,16 +4144,16 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="D169" t="n">
-        <v>47.6622292</v>
+        <v>49.2790176</v>
       </c>
       <c r="E169" t="n">
-        <v>63.8790355</v>
+        <v>65.7095174</v>
       </c>
       <c r="F169" t="n">
-        <v>35.7763436</v>
+        <v>37.1783601</v>
       </c>
     </row>
     <row r="170">
@@ -4166,16 +4166,16 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="D170" t="n">
-        <v>45.5418343</v>
+        <v>47.6622292</v>
       </c>
       <c r="E170" t="n">
-        <v>61.4689287</v>
+        <v>63.8790355</v>
       </c>
       <c r="F170" t="n">
-        <v>33.9840218</v>
+        <v>35.7763436</v>
       </c>
     </row>
     <row r="171">
@@ -4188,16 +4188,16 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="D171" t="n">
-        <v>43.4511732</v>
+        <v>45.5418343</v>
       </c>
       <c r="E171" t="n">
-        <v>58.9821214</v>
+        <v>61.4689287</v>
       </c>
       <c r="F171" t="n">
-        <v>32.2165689</v>
+        <v>33.9840218</v>
       </c>
     </row>
     <row r="172">
@@ -4210,16 +4210,16 @@
         </is>
       </c>
       <c r="C172" t="n">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="D172" t="n">
-        <v>41.4504899</v>
+        <v>43.4511732</v>
       </c>
       <c r="E172" t="n">
-        <v>56.542511</v>
+        <v>58.9821214</v>
       </c>
       <c r="F172" t="n">
-        <v>30.562539</v>
+        <v>32.2165689</v>
       </c>
     </row>
     <row r="173">
@@ -4232,16 +4232,16 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="D173" t="n">
-        <v>38.7363263</v>
+        <v>41.4504899</v>
       </c>
       <c r="E173" t="n">
-        <v>52.9432247</v>
+        <v>56.542511</v>
       </c>
       <c r="F173" t="n">
-        <v>28.4664177</v>
+        <v>30.562539</v>
       </c>
     </row>
     <row r="174">
@@ -4254,16 +4254,16 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="D174" t="n">
-        <v>37.2176802</v>
+        <v>38.7363263</v>
       </c>
       <c r="E174" t="n">
-        <v>51.1059277</v>
+        <v>52.9432247</v>
       </c>
       <c r="F174" t="n">
-        <v>27.2928823</v>
+        <v>28.4664177</v>
       </c>
     </row>
     <row r="175">
@@ -4276,16 +4276,16 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="D175" t="n">
-        <v>34.957732</v>
+        <v>37.2176802</v>
       </c>
       <c r="E175" t="n">
-        <v>48.2589457</v>
+        <v>51.1059277</v>
       </c>
       <c r="F175" t="n">
-        <v>25.5635747</v>
+        <v>27.2928823</v>
       </c>
     </row>
     <row r="176">
@@ -4298,16 +4298,16 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="D176" t="n">
-        <v>33.017622</v>
+        <v>34.957732</v>
       </c>
       <c r="E176" t="n">
-        <v>45.8454331</v>
+        <v>48.2589457</v>
       </c>
       <c r="F176" t="n">
-        <v>24.0438484</v>
+        <v>25.5635747</v>
       </c>
     </row>
     <row r="177">
@@ -4320,16 +4320,16 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="D177" t="n">
-        <v>30.7366504</v>
+        <v>33.017622</v>
       </c>
       <c r="E177" t="n">
-        <v>42.8889853</v>
+        <v>45.8454331</v>
       </c>
       <c r="F177" t="n">
-        <v>22.2748958</v>
+        <v>24.0438484</v>
       </c>
     </row>
     <row r="178">
@@ -4342,16 +4342,16 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="D178" t="n">
-        <v>29.1271184</v>
+        <v>30.7366504</v>
       </c>
       <c r="E178" t="n">
-        <v>40.7590954</v>
+        <v>42.8889853</v>
       </c>
       <c r="F178" t="n">
-        <v>21.0254931</v>
+        <v>22.2748958</v>
       </c>
     </row>
     <row r="179">
@@ -4364,16 +4364,16 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="D179" t="n">
-        <v>27.339613</v>
+        <v>29.1271184</v>
       </c>
       <c r="E179" t="n">
-        <v>38.5754319</v>
+        <v>40.7590954</v>
       </c>
       <c r="F179" t="n">
-        <v>19.6058392</v>
+        <v>21.0254931</v>
       </c>
     </row>
     <row r="180">
@@ -4386,16 +4386,16 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="D180" t="n">
-        <v>25.8044784</v>
+        <v>27.339613</v>
       </c>
       <c r="E180" t="n">
-        <v>36.7060179</v>
+        <v>38.5754319</v>
       </c>
       <c r="F180" t="n">
-        <v>18.3647119</v>
+        <v>19.6058392</v>
       </c>
     </row>
     <row r="181">
@@ -4408,16 +4408,16 @@
         </is>
       </c>
       <c r="C181" t="n">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="D181" t="n">
-        <v>24.8165904</v>
+        <v>25.8044784</v>
       </c>
       <c r="E181" t="n">
-        <v>35.681177</v>
+        <v>36.7060179</v>
       </c>
       <c r="F181" t="n">
-        <v>17.4875424</v>
+        <v>18.3647119</v>
       </c>
     </row>
     <row r="182">
@@ -4430,16 +4430,16 @@
         </is>
       </c>
       <c r="C182" t="n">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="D182" t="n">
-        <v>24.3521428</v>
+        <v>24.8165904</v>
       </c>
       <c r="E182" t="n">
-        <v>35.2209257</v>
+        <v>35.681177</v>
       </c>
       <c r="F182" t="n">
-        <v>17.0397872</v>
+        <v>17.4875424</v>
       </c>
     </row>
     <row r="183">
@@ -4452,16 +4452,16 @@
         </is>
       </c>
       <c r="C183" t="n">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="D183" t="n">
-        <v>24.3008504</v>
+        <v>24.3521428</v>
       </c>
       <c r="E183" t="n">
-        <v>35.3412369</v>
+        <v>35.2209257</v>
       </c>
       <c r="F183" t="n">
-        <v>16.9040136</v>
+        <v>17.0397872</v>
       </c>
     </row>
     <row r="184">
@@ -4474,16 +4474,16 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="D184" t="n">
-        <v>23.9179987</v>
+        <v>24.3008504</v>
       </c>
       <c r="E184" t="n">
-        <v>34.9703478</v>
+        <v>35.3412369</v>
       </c>
       <c r="F184" t="n">
-        <v>16.5707605</v>
+        <v>16.9040136</v>
       </c>
     </row>
     <row r="185">
@@ -4496,16 +4496,16 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="D185" t="n">
-        <v>23.4634188</v>
+        <v>23.9179987</v>
       </c>
       <c r="E185" t="n">
-        <v>34.4933233</v>
+        <v>34.9703478</v>
       </c>
       <c r="F185" t="n">
-        <v>16.1844982</v>
+        <v>16.5707605</v>
       </c>
     </row>
     <row r="186">
@@ -4518,16 +4518,16 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="D186" t="n">
-        <v>22.6305172</v>
+        <v>23.4634188</v>
       </c>
       <c r="E186" t="n">
-        <v>33.5194578</v>
+        <v>34.4933233</v>
       </c>
       <c r="F186" t="n">
-        <v>15.5197602</v>
+        <v>16.1844982</v>
       </c>
     </row>
     <row r="187">
@@ -4540,16 +4540,16 @@
         </is>
       </c>
       <c r="C187" t="n">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="D187" t="n">
-        <v>21.6249062</v>
+        <v>22.6305172</v>
       </c>
       <c r="E187" t="n">
-        <v>32.2752631</v>
+        <v>33.5194578</v>
       </c>
       <c r="F187" t="n">
-        <v>14.7088306</v>
+        <v>15.5197602</v>
       </c>
     </row>
     <row r="188">
@@ -4562,16 +4562,16 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="D188" t="n">
-        <v>20.6673475</v>
+        <v>21.6249062</v>
       </c>
       <c r="E188" t="n">
-        <v>31.105954</v>
+        <v>32.2752631</v>
       </c>
       <c r="F188" t="n">
-        <v>13.8917211</v>
+        <v>14.7088306</v>
       </c>
     </row>
     <row r="189">
@@ -4584,16 +4584,16 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="D189" t="n">
-        <v>19.1988471</v>
+        <v>20.6673475</v>
       </c>
       <c r="E189" t="n">
-        <v>29.1392527</v>
+        <v>31.105954</v>
       </c>
       <c r="F189" t="n">
-        <v>12.7437579</v>
+        <v>13.8917211</v>
       </c>
     </row>
     <row r="190">
@@ -4606,16 +4606,16 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="D190" t="n">
-        <v>18.0219349</v>
+        <v>19.1988471</v>
       </c>
       <c r="E190" t="n">
-        <v>27.5475928</v>
+        <v>29.1392527</v>
       </c>
       <c r="F190" t="n">
-        <v>11.8397648</v>
+        <v>12.7437579</v>
       </c>
     </row>
     <row r="191">
@@ -4628,16 +4628,16 @@
         </is>
       </c>
       <c r="C191" t="n">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="D191" t="n">
-        <v>17.3151435</v>
+        <v>18.0219349</v>
       </c>
       <c r="E191" t="n">
-        <v>26.6210756</v>
+        <v>27.5475928</v>
       </c>
       <c r="F191" t="n">
-        <v>11.306868</v>
+        <v>11.8397648</v>
       </c>
     </row>
     <row r="192">
@@ -4650,16 +4650,16 @@
         </is>
       </c>
       <c r="C192" t="n">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="D192" t="n">
-        <v>17.4279543</v>
+        <v>17.3151435</v>
       </c>
       <c r="E192" t="n">
-        <v>26.864237</v>
+        <v>26.6210756</v>
       </c>
       <c r="F192" t="n">
-        <v>11.3628584</v>
+        <v>11.306868</v>
       </c>
     </row>
     <row r="193">
@@ -4672,16 +4672,16 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="D193" t="n">
-        <v>17.5929918</v>
+        <v>17.4279543</v>
       </c>
       <c r="E193" t="n">
-        <v>27.1837077</v>
+        <v>26.864237</v>
       </c>
       <c r="F193" t="n">
-        <v>11.4456103</v>
+        <v>11.3628584</v>
       </c>
     </row>
     <row r="194">
@@ -4694,16 +4694,16 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="D194" t="n">
-        <v>17.3996065</v>
+        <v>17.5929918</v>
       </c>
       <c r="E194" t="n">
-        <v>26.8996951</v>
+        <v>27.1837077</v>
       </c>
       <c r="F194" t="n">
-        <v>11.3071691</v>
+        <v>11.4456103</v>
       </c>
     </row>
     <row r="195">
@@ -4716,16 +4716,16 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D195" t="n">
-        <v>17.2112375</v>
+        <v>17.3996065</v>
       </c>
       <c r="E195" t="n">
-        <v>26.6000844</v>
+        <v>26.8996951</v>
       </c>
       <c r="F195" t="n">
-        <v>11.1643982</v>
+        <v>11.3071691</v>
       </c>
     </row>
     <row r="196">
@@ -4738,16 +4738,16 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="D196" t="n">
-        <v>17.1441894</v>
+        <v>17.2112375</v>
       </c>
       <c r="E196" t="n">
-        <v>26.4797937</v>
+        <v>26.6000844</v>
       </c>
       <c r="F196" t="n">
-        <v>11.1100249</v>
+        <v>11.1643982</v>
       </c>
     </row>
     <row r="197">
@@ -4756,20 +4756,20 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Latin America and the Caribbean</t>
+          <t>Freshwater</t>
         </is>
       </c>
       <c r="C197" t="n">
-        <v>1970</v>
+        <v>2018</v>
       </c>
       <c r="D197" t="n">
-        <v>100</v>
+        <v>17.1441894</v>
       </c>
       <c r="E197" t="n">
-        <v>100</v>
+        <v>26.4797937</v>
       </c>
       <c r="F197" t="n">
-        <v>100</v>
+        <v>11.1100249</v>
       </c>
     </row>
     <row r="198">
@@ -4782,16 +4782,16 @@
         </is>
       </c>
       <c r="C198" t="n">
-        <v>1971</v>
+        <v>1970</v>
       </c>
       <c r="D198" t="n">
-        <v>101.0071636</v>
+        <v>100</v>
       </c>
       <c r="E198" t="n">
-        <v>104.1105969</v>
+        <v>100</v>
       </c>
       <c r="F198" t="n">
-        <v>98.4167197</v>
+        <v>100</v>
       </c>
     </row>
     <row r="199">
@@ -4804,16 +4804,16 @@
         </is>
       </c>
       <c r="C199" t="n">
-        <v>1972</v>
+        <v>1971</v>
       </c>
       <c r="D199" t="n">
-        <v>99.5231095</v>
+        <v>101.0071636</v>
       </c>
       <c r="E199" t="n">
-        <v>106.1407687</v>
+        <v>104.1105969</v>
       </c>
       <c r="F199" t="n">
-        <v>93.6485237</v>
+        <v>98.4167197</v>
       </c>
     </row>
     <row r="200">
@@ -4826,16 +4826,16 @@
         </is>
       </c>
       <c r="C200" t="n">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="D200" t="n">
-        <v>95.21222849999999</v>
+        <v>99.5231095</v>
       </c>
       <c r="E200" t="n">
-        <v>105.3418405</v>
+        <v>106.1407687</v>
       </c>
       <c r="F200" t="n">
-        <v>86.0003305</v>
+        <v>93.6485237</v>
       </c>
     </row>
     <row r="201">
@@ -4848,16 +4848,16 @@
         </is>
       </c>
       <c r="C201" t="n">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="D201" t="n">
-        <v>89.55634790000001</v>
+        <v>95.21222849999999</v>
       </c>
       <c r="E201" t="n">
-        <v>103.565333</v>
+        <v>105.3418405</v>
       </c>
       <c r="F201" t="n">
-        <v>76.94124050000001</v>
+        <v>86.0003305</v>
       </c>
     </row>
     <row r="202">
@@ -4870,16 +4870,16 @@
         </is>
       </c>
       <c r="C202" t="n">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="D202" t="n">
-        <v>83.39782820000001</v>
+        <v>89.55634790000001</v>
       </c>
       <c r="E202" t="n">
-        <v>99.9139864</v>
+        <v>103.565333</v>
       </c>
       <c r="F202" t="n">
-        <v>69.0072347</v>
+        <v>76.94124050000001</v>
       </c>
     </row>
     <row r="203">
@@ -4892,16 +4892,16 @@
         </is>
       </c>
       <c r="C203" t="n">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="D203" t="n">
-        <v>78.07280710000001</v>
+        <v>83.39782820000001</v>
       </c>
       <c r="E203" t="n">
-        <v>95.88828580000001</v>
+        <v>99.9139864</v>
       </c>
       <c r="F203" t="n">
-        <v>63.0680443</v>
+        <v>69.0072347</v>
       </c>
     </row>
     <row r="204">
@@ -4914,16 +4914,16 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="D204" t="n">
-        <v>73.0437843</v>
+        <v>78.07280710000001</v>
       </c>
       <c r="E204" t="n">
-        <v>90.4923354</v>
+        <v>95.88828580000001</v>
       </c>
       <c r="F204" t="n">
-        <v>58.5304714</v>
+        <v>63.0680443</v>
       </c>
     </row>
     <row r="205">
@@ -4936,16 +4936,16 @@
         </is>
       </c>
       <c r="C205" t="n">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="D205" t="n">
-        <v>69.5593466</v>
+        <v>73.0437843</v>
       </c>
       <c r="E205" t="n">
-        <v>86.46619080000001</v>
+        <v>90.4923354</v>
       </c>
       <c r="F205" t="n">
-        <v>55.5917236</v>
+        <v>58.5304714</v>
       </c>
     </row>
     <row r="206">
@@ -4958,16 +4958,16 @@
         </is>
       </c>
       <c r="C206" t="n">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="D206" t="n">
-        <v>67.4653369</v>
+        <v>69.5593466</v>
       </c>
       <c r="E206" t="n">
-        <v>84.17390260000001</v>
+        <v>86.46619080000001</v>
       </c>
       <c r="F206" t="n">
-        <v>53.737348</v>
+        <v>55.5917236</v>
       </c>
     </row>
     <row r="207">
@@ -4980,16 +4980,16 @@
         </is>
       </c>
       <c r="C207" t="n">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="D207" t="n">
-        <v>65.0498838</v>
+        <v>67.4653369</v>
       </c>
       <c r="E207" t="n">
-        <v>81.3841687</v>
+        <v>84.17390260000001</v>
       </c>
       <c r="F207" t="n">
-        <v>51.612786</v>
+        <v>53.737348</v>
       </c>
     </row>
     <row r="208">
@@ -5002,16 +5002,16 @@
         </is>
       </c>
       <c r="C208" t="n">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="D208" t="n">
-        <v>62.513807</v>
+        <v>65.0498838</v>
       </c>
       <c r="E208" t="n">
-        <v>78.56075540000001</v>
+        <v>81.3841687</v>
       </c>
       <c r="F208" t="n">
-        <v>49.3195098</v>
+        <v>51.612786</v>
       </c>
     </row>
     <row r="209">
@@ -5024,16 +5024,16 @@
         </is>
       </c>
       <c r="C209" t="n">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="D209" t="n">
-        <v>58.2923756</v>
+        <v>62.513807</v>
       </c>
       <c r="E209" t="n">
-        <v>73.82035519999999</v>
+        <v>78.56075540000001</v>
       </c>
       <c r="F209" t="n">
-        <v>45.644396</v>
+        <v>49.3195098</v>
       </c>
     </row>
     <row r="210">
@@ -5046,16 +5046,16 @@
         </is>
       </c>
       <c r="C210" t="n">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="D210" t="n">
-        <v>53.3732362</v>
+        <v>58.2923756</v>
       </c>
       <c r="E210" t="n">
-        <v>68.2949275</v>
+        <v>73.82035519999999</v>
       </c>
       <c r="F210" t="n">
-        <v>41.5340998</v>
+        <v>45.644396</v>
       </c>
     </row>
     <row r="211">
@@ -5068,16 +5068,16 @@
         </is>
       </c>
       <c r="C211" t="n">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="D211" t="n">
-        <v>49.6977588</v>
+        <v>53.3732362</v>
       </c>
       <c r="E211" t="n">
-        <v>64.5389766</v>
+        <v>68.2949275</v>
       </c>
       <c r="F211" t="n">
-        <v>38.329867</v>
+        <v>41.5340998</v>
       </c>
     </row>
     <row r="212">
@@ -5090,16 +5090,16 @@
         </is>
       </c>
       <c r="C212" t="n">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="D212" t="n">
-        <v>46.941833</v>
+        <v>49.6977588</v>
       </c>
       <c r="E212" t="n">
-        <v>61.6575612</v>
+        <v>64.5389766</v>
       </c>
       <c r="F212" t="n">
-        <v>35.9259806</v>
+        <v>38.329867</v>
       </c>
     </row>
     <row r="213">
@@ -5112,16 +5112,16 @@
         </is>
       </c>
       <c r="C213" t="n">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="D213" t="n">
-        <v>44.3168275</v>
+        <v>46.941833</v>
       </c>
       <c r="E213" t="n">
-        <v>58.8636751</v>
+        <v>61.6575612</v>
       </c>
       <c r="F213" t="n">
-        <v>33.49296</v>
+        <v>35.9259806</v>
       </c>
     </row>
     <row r="214">
@@ -5134,16 +5134,16 @@
         </is>
       </c>
       <c r="C214" t="n">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="D214" t="n">
-        <v>40.6477786</v>
+        <v>44.3168275</v>
       </c>
       <c r="E214" t="n">
-        <v>54.4387182</v>
+        <v>58.8636751</v>
       </c>
       <c r="F214" t="n">
-        <v>30.468063</v>
+        <v>33.49296</v>
       </c>
     </row>
     <row r="215">
@@ -5156,16 +5156,16 @@
         </is>
       </c>
       <c r="C215" t="n">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="D215" t="n">
-        <v>37.7652622</v>
+        <v>40.6477786</v>
       </c>
       <c r="E215" t="n">
-        <v>51.058866</v>
+        <v>54.4387182</v>
       </c>
       <c r="F215" t="n">
-        <v>28.0686441</v>
+        <v>30.468063</v>
       </c>
     </row>
     <row r="216">
@@ -5178,16 +5178,16 @@
         </is>
       </c>
       <c r="C216" t="n">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="D216" t="n">
-        <v>35.9970139</v>
+        <v>37.7652622</v>
       </c>
       <c r="E216" t="n">
-        <v>48.9756475</v>
+        <v>51.058866</v>
       </c>
       <c r="F216" t="n">
-        <v>26.6598846</v>
+        <v>28.0686441</v>
       </c>
     </row>
     <row r="217">
@@ -5200,16 +5200,16 @@
         </is>
       </c>
       <c r="C217" t="n">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="D217" t="n">
-        <v>34.9957577</v>
+        <v>35.9970139</v>
       </c>
       <c r="E217" t="n">
-        <v>47.7697264</v>
+        <v>48.9756475</v>
       </c>
       <c r="F217" t="n">
-        <v>25.8238284</v>
+        <v>26.6598846</v>
       </c>
     </row>
     <row r="218">
@@ -5222,16 +5222,16 @@
         </is>
       </c>
       <c r="C218" t="n">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="D218" t="n">
-        <v>33.7526107</v>
+        <v>34.9957577</v>
       </c>
       <c r="E218" t="n">
-        <v>46.1926817</v>
+        <v>47.7697264</v>
       </c>
       <c r="F218" t="n">
-        <v>24.8353248</v>
+        <v>25.8238284</v>
       </c>
     </row>
     <row r="219">
@@ -5244,16 +5244,16 @@
         </is>
       </c>
       <c r="C219" t="n">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="D219" t="n">
-        <v>32.3694842</v>
+        <v>33.7526107</v>
       </c>
       <c r="E219" t="n">
-        <v>44.4392686</v>
+        <v>46.1926817</v>
       </c>
       <c r="F219" t="n">
-        <v>23.7640877</v>
+        <v>24.8353248</v>
       </c>
     </row>
     <row r="220">
@@ -5266,16 +5266,16 @@
         </is>
       </c>
       <c r="C220" t="n">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="D220" t="n">
-        <v>30.5792635</v>
+        <v>32.3694842</v>
       </c>
       <c r="E220" t="n">
-        <v>42.1563971</v>
+        <v>44.4392686</v>
       </c>
       <c r="F220" t="n">
-        <v>22.3802304</v>
+        <v>23.7640877</v>
       </c>
     </row>
     <row r="221">
@@ -5288,16 +5288,16 @@
         </is>
       </c>
       <c r="C221" t="n">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="D221" t="n">
-        <v>28.6838626</v>
+        <v>30.5792635</v>
       </c>
       <c r="E221" t="n">
-        <v>39.654119</v>
+        <v>42.1563971</v>
       </c>
       <c r="F221" t="n">
-        <v>20.9446756</v>
+        <v>22.3802304</v>
       </c>
     </row>
     <row r="222">
@@ -5310,16 +5310,16 @@
         </is>
       </c>
       <c r="C222" t="n">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="D222" t="n">
-        <v>26.6828334</v>
+        <v>28.6838626</v>
       </c>
       <c r="E222" t="n">
-        <v>36.9733774</v>
+        <v>39.654119</v>
       </c>
       <c r="F222" t="n">
-        <v>19.445473</v>
+        <v>20.9446756</v>
       </c>
     </row>
     <row r="223">
@@ -5332,16 +5332,16 @@
         </is>
       </c>
       <c r="C223" t="n">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="D223" t="n">
-        <v>25.4086279</v>
+        <v>26.6828334</v>
       </c>
       <c r="E223" t="n">
-        <v>35.2864016</v>
+        <v>36.9733774</v>
       </c>
       <c r="F223" t="n">
-        <v>18.4880675</v>
+        <v>19.445473</v>
       </c>
     </row>
     <row r="224">
@@ -5354,16 +5354,16 @@
         </is>
       </c>
       <c r="C224" t="n">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="D224" t="n">
-        <v>24.0465035</v>
+        <v>25.4086279</v>
       </c>
       <c r="E224" t="n">
-        <v>33.4897187</v>
+        <v>35.2864016</v>
       </c>
       <c r="F224" t="n">
-        <v>17.452848</v>
+        <v>18.4880675</v>
       </c>
     </row>
     <row r="225">
@@ -5376,16 +5376,16 @@
         </is>
       </c>
       <c r="C225" t="n">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="D225" t="n">
-        <v>22.5881777</v>
+        <v>24.0465035</v>
       </c>
       <c r="E225" t="n">
-        <v>31.5767986</v>
+        <v>33.4897187</v>
       </c>
       <c r="F225" t="n">
-        <v>16.3055882</v>
+        <v>17.452848</v>
       </c>
     </row>
     <row r="226">
@@ -5398,16 +5398,16 @@
         </is>
       </c>
       <c r="C226" t="n">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="D226" t="n">
-        <v>20.8280991</v>
+        <v>22.5881777</v>
       </c>
       <c r="E226" t="n">
-        <v>29.2252302</v>
+        <v>31.5767986</v>
       </c>
       <c r="F226" t="n">
-        <v>14.9612086</v>
+        <v>16.3055882</v>
       </c>
     </row>
     <row r="227">
@@ -5420,16 +5420,16 @@
         </is>
       </c>
       <c r="C227" t="n">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="D227" t="n">
-        <v>19.7551713</v>
+        <v>20.8280991</v>
       </c>
       <c r="E227" t="n">
-        <v>27.8203199</v>
+        <v>29.2252302</v>
       </c>
       <c r="F227" t="n">
-        <v>14.1191595</v>
+        <v>14.9612086</v>
       </c>
     </row>
     <row r="228">
@@ -5442,16 +5442,16 @@
         </is>
       </c>
       <c r="C228" t="n">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="D228" t="n">
-        <v>18.5563816</v>
+        <v>19.7551713</v>
       </c>
       <c r="E228" t="n">
-        <v>26.3919071</v>
+        <v>27.8203199</v>
       </c>
       <c r="F228" t="n">
-        <v>13.1441043</v>
+        <v>14.1191595</v>
       </c>
     </row>
     <row r="229">
@@ -5464,16 +5464,16 @@
         </is>
       </c>
       <c r="C229" t="n">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="D229" t="n">
-        <v>17.4334989</v>
+        <v>18.5563816</v>
       </c>
       <c r="E229" t="n">
-        <v>25.0737068</v>
+        <v>26.3919071</v>
       </c>
       <c r="F229" t="n">
-        <v>12.1887472</v>
+        <v>13.1441043</v>
       </c>
     </row>
     <row r="230">
@@ -5486,16 +5486,16 @@
         </is>
       </c>
       <c r="C230" t="n">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="D230" t="n">
-        <v>16.2074901</v>
+        <v>17.4334989</v>
       </c>
       <c r="E230" t="n">
-        <v>23.6239859</v>
+        <v>25.0737068</v>
       </c>
       <c r="F230" t="n">
-        <v>11.166549</v>
+        <v>12.1887472</v>
       </c>
     </row>
     <row r="231">
@@ -5508,16 +5508,16 @@
         </is>
       </c>
       <c r="C231" t="n">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="D231" t="n">
-        <v>15.498992</v>
+        <v>16.2074901</v>
       </c>
       <c r="E231" t="n">
-        <v>22.7920578</v>
+        <v>23.6239859</v>
       </c>
       <c r="F231" t="n">
-        <v>10.5613</v>
+        <v>11.166549</v>
       </c>
     </row>
     <row r="232">
@@ -5530,16 +5530,16 @@
         </is>
       </c>
       <c r="C232" t="n">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="D232" t="n">
-        <v>15.3081408</v>
+        <v>15.498992</v>
       </c>
       <c r="E232" t="n">
-        <v>22.7310595</v>
+        <v>22.7920578</v>
       </c>
       <c r="F232" t="n">
-        <v>10.359299</v>
+        <v>10.5613</v>
       </c>
     </row>
     <row r="233">
@@ -5552,16 +5552,16 @@
         </is>
       </c>
       <c r="C233" t="n">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="D233" t="n">
-        <v>15.0125798</v>
+        <v>15.3081408</v>
       </c>
       <c r="E233" t="n">
-        <v>22.475517</v>
+        <v>22.7310595</v>
       </c>
       <c r="F233" t="n">
-        <v>10.0761404</v>
+        <v>10.359299</v>
       </c>
     </row>
     <row r="234">
@@ -5574,16 +5574,16 @@
         </is>
       </c>
       <c r="C234" t="n">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="D234" t="n">
-        <v>14.5484609</v>
+        <v>15.0125798</v>
       </c>
       <c r="E234" t="n">
-        <v>21.9133216</v>
+        <v>22.475517</v>
       </c>
       <c r="F234" t="n">
-        <v>9.7184013</v>
+        <v>10.0761404</v>
       </c>
     </row>
     <row r="235">
@@ -5596,16 +5596,16 @@
         </is>
       </c>
       <c r="C235" t="n">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="D235" t="n">
-        <v>13.5933336</v>
+        <v>14.5484609</v>
       </c>
       <c r="E235" t="n">
-        <v>20.5905293</v>
+        <v>21.9133216</v>
       </c>
       <c r="F235" t="n">
-        <v>9.001263399999999</v>
+        <v>9.7184013</v>
       </c>
     </row>
     <row r="236">
@@ -5618,16 +5618,16 @@
         </is>
       </c>
       <c r="C236" t="n">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="D236" t="n">
-        <v>11.9460841</v>
+        <v>13.5933336</v>
       </c>
       <c r="E236" t="n">
-        <v>18.2888596</v>
+        <v>20.5905293</v>
       </c>
       <c r="F236" t="n">
-        <v>7.8272462</v>
+        <v>9.001263399999999</v>
       </c>
     </row>
     <row r="237">
@@ -5640,16 +5640,16 @@
         </is>
       </c>
       <c r="C237" t="n">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="D237" t="n">
-        <v>10.3764877</v>
+        <v>11.9460841</v>
       </c>
       <c r="E237" t="n">
-        <v>16.1299078</v>
+        <v>18.2888596</v>
       </c>
       <c r="F237" t="n">
-        <v>6.6972184</v>
+        <v>7.8272462</v>
       </c>
     </row>
     <row r="238">
@@ -5662,16 +5662,16 @@
         </is>
       </c>
       <c r="C238" t="n">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="D238" t="n">
-        <v>8.8097502</v>
+        <v>10.3764877</v>
       </c>
       <c r="E238" t="n">
-        <v>13.9770725</v>
+        <v>16.1299078</v>
       </c>
       <c r="F238" t="n">
-        <v>5.5901676</v>
+        <v>6.6972184</v>
       </c>
     </row>
     <row r="239">
@@ -5684,16 +5684,16 @@
         </is>
       </c>
       <c r="C239" t="n">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="D239" t="n">
-        <v>8.1147527</v>
+        <v>8.8097502</v>
       </c>
       <c r="E239" t="n">
-        <v>13.0408824</v>
+        <v>13.9770725</v>
       </c>
       <c r="F239" t="n">
-        <v>5.0982558</v>
+        <v>5.5901676</v>
       </c>
     </row>
     <row r="240">
@@ -5706,16 +5706,16 @@
         </is>
       </c>
       <c r="C240" t="n">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="D240" t="n">
-        <v>7.7500345</v>
+        <v>8.1147527</v>
       </c>
       <c r="E240" t="n">
-        <v>12.5857674</v>
+        <v>13.0408824</v>
       </c>
       <c r="F240" t="n">
-        <v>4.8310487</v>
+        <v>5.0982558</v>
       </c>
     </row>
     <row r="241">
@@ -5728,16 +5728,16 @@
         </is>
       </c>
       <c r="C241" t="n">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="D241" t="n">
-        <v>7.7751585</v>
+        <v>7.7500345</v>
       </c>
       <c r="E241" t="n">
-        <v>12.8036659</v>
+        <v>12.5857674</v>
       </c>
       <c r="F241" t="n">
-        <v>4.7989028</v>
+        <v>4.8310487</v>
       </c>
     </row>
     <row r="242">
@@ -5750,16 +5750,16 @@
         </is>
       </c>
       <c r="C242" t="n">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="D242" t="n">
-        <v>7.8492061</v>
+        <v>7.7751585</v>
       </c>
       <c r="E242" t="n">
-        <v>13.0737965</v>
+        <v>12.8036659</v>
       </c>
       <c r="F242" t="n">
-        <v>4.7955114</v>
+        <v>4.7989028</v>
       </c>
     </row>
     <row r="243">
@@ -5772,16 +5772,16 @@
         </is>
       </c>
       <c r="C243" t="n">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="D243" t="n">
-        <v>7.406642</v>
+        <v>7.8492061</v>
       </c>
       <c r="E243" t="n">
-        <v>12.6393033</v>
+        <v>13.0737965</v>
       </c>
       <c r="F243" t="n">
-        <v>4.4338134</v>
+        <v>4.7955114</v>
       </c>
     </row>
     <row r="244">
@@ -5794,16 +5794,16 @@
         </is>
       </c>
       <c r="C244" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D244" t="n">
-        <v>6.8550363</v>
+        <v>7.406642</v>
       </c>
       <c r="E244" t="n">
-        <v>11.9185711</v>
+        <v>12.6393033</v>
       </c>
       <c r="F244" t="n">
-        <v>4.0334935</v>
+        <v>4.4338134</v>
       </c>
     </row>
     <row r="245">
@@ -5816,16 +5816,16 @@
         </is>
       </c>
       <c r="C245" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="D245" t="n">
-        <v>6.4136321</v>
+        <v>6.8550363</v>
       </c>
       <c r="E245" t="n">
-        <v>11.390088</v>
+        <v>11.9185711</v>
       </c>
       <c r="F245" t="n">
-        <v>3.7027987</v>
+        <v>4.0334935</v>
       </c>
     </row>
     <row r="246">
@@ -5834,20 +5834,20 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>North America</t>
+          <t>Latin America and the Caribbean</t>
         </is>
       </c>
       <c r="C246" t="n">
-        <v>1970</v>
+        <v>2018</v>
       </c>
       <c r="D246" t="n">
-        <v>100</v>
+        <v>6.4136321</v>
       </c>
       <c r="E246" t="n">
-        <v>100</v>
+        <v>11.390088</v>
       </c>
       <c r="F246" t="n">
-        <v>100</v>
+        <v>3.7027987</v>
       </c>
     </row>
     <row r="247">
@@ -5860,16 +5860,16 @@
         </is>
       </c>
       <c r="C247" t="n">
-        <v>1971</v>
+        <v>1970</v>
       </c>
       <c r="D247" t="n">
-        <v>99.70049349999999</v>
+        <v>100</v>
       </c>
       <c r="E247" t="n">
-        <v>105.5057865</v>
+        <v>100</v>
       </c>
       <c r="F247" t="n">
-        <v>95.2655403</v>
+        <v>100</v>
       </c>
     </row>
     <row r="248">
@@ -5882,16 +5882,16 @@
         </is>
       </c>
       <c r="C248" t="n">
-        <v>1972</v>
+        <v>1971</v>
       </c>
       <c r="D248" t="n">
-        <v>98.1814349</v>
+        <v>99.70049349999999</v>
       </c>
       <c r="E248" t="n">
-        <v>108.2332705</v>
+        <v>105.5057865</v>
       </c>
       <c r="F248" t="n">
-        <v>90.6197945</v>
+        <v>95.2655403</v>
       </c>
     </row>
     <row r="249">
@@ -5904,16 +5904,16 @@
         </is>
       </c>
       <c r="C249" t="n">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="D249" t="n">
-        <v>96.0216008</v>
+        <v>98.1814349</v>
       </c>
       <c r="E249" t="n">
-        <v>108.9259573</v>
+        <v>108.2332705</v>
       </c>
       <c r="F249" t="n">
-        <v>86.65404700000001</v>
+        <v>90.6197945</v>
       </c>
     </row>
     <row r="250">
@@ -5926,16 +5926,16 @@
         </is>
       </c>
       <c r="C250" t="n">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="D250" t="n">
-        <v>92.0815989</v>
+        <v>96.0216008</v>
       </c>
       <c r="E250" t="n">
-        <v>104.9298607</v>
+        <v>108.9259573</v>
       </c>
       <c r="F250" t="n">
-        <v>82.37361199999999</v>
+        <v>86.65404700000001</v>
       </c>
     </row>
     <row r="251">
@@ -5948,16 +5948,16 @@
         </is>
       </c>
       <c r="C251" t="n">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="D251" t="n">
-        <v>89.9868154</v>
+        <v>92.0815989</v>
       </c>
       <c r="E251" t="n">
-        <v>103.1144623</v>
+        <v>104.9298607</v>
       </c>
       <c r="F251" t="n">
-        <v>79.9308904</v>
+        <v>82.37361199999999</v>
       </c>
     </row>
     <row r="252">
@@ -5970,16 +5970,16 @@
         </is>
       </c>
       <c r="C252" t="n">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="D252" t="n">
-        <v>89.2258526</v>
+        <v>89.9868154</v>
       </c>
       <c r="E252" t="n">
-        <v>102.7749315</v>
+        <v>103.1144623</v>
       </c>
       <c r="F252" t="n">
-        <v>78.647609</v>
+        <v>79.9308904</v>
       </c>
     </row>
     <row r="253">
@@ -5992,16 +5992,16 @@
         </is>
       </c>
       <c r="C253" t="n">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="D253" t="n">
-        <v>89.8321014</v>
+        <v>89.2258526</v>
       </c>
       <c r="E253" t="n">
-        <v>104.3398462</v>
+        <v>102.7749315</v>
       </c>
       <c r="F253" t="n">
-        <v>78.418145</v>
+        <v>78.647609</v>
       </c>
     </row>
     <row r="254">
@@ -6014,16 +6014,16 @@
         </is>
       </c>
       <c r="C254" t="n">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="D254" t="n">
-        <v>90.7552718</v>
+        <v>89.8321014</v>
       </c>
       <c r="E254" t="n">
-        <v>106.4901667</v>
+        <v>104.3398462</v>
       </c>
       <c r="F254" t="n">
-        <v>78.33394939999999</v>
+        <v>78.418145</v>
       </c>
     </row>
     <row r="255">
@@ -6036,16 +6036,16 @@
         </is>
       </c>
       <c r="C255" t="n">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="D255" t="n">
-        <v>91.1322222</v>
+        <v>90.7552718</v>
       </c>
       <c r="E255" t="n">
-        <v>107.9458069</v>
+        <v>106.4901667</v>
       </c>
       <c r="F255" t="n">
-        <v>77.9205893</v>
+        <v>78.33394939999999</v>
       </c>
     </row>
     <row r="256">
@@ -6058,16 +6058,16 @@
         </is>
       </c>
       <c r="C256" t="n">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="D256" t="n">
-        <v>90.8661431</v>
+        <v>91.1322222</v>
       </c>
       <c r="E256" t="n">
-        <v>108.3433629</v>
+        <v>107.9458069</v>
       </c>
       <c r="F256" t="n">
-        <v>77.1414596</v>
+        <v>77.9205893</v>
       </c>
     </row>
     <row r="257">
@@ -6080,16 +6080,16 @@
         </is>
       </c>
       <c r="C257" t="n">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="D257" t="n">
-        <v>90.0886972</v>
+        <v>90.8661431</v>
       </c>
       <c r="E257" t="n">
-        <v>107.8116298</v>
+        <v>108.3433629</v>
       </c>
       <c r="F257" t="n">
-        <v>76.1093935</v>
+        <v>77.1414596</v>
       </c>
     </row>
     <row r="258">
@@ -6102,16 +6102,16 @@
         </is>
       </c>
       <c r="C258" t="n">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="D258" t="n">
-        <v>89.6391462</v>
+        <v>90.0886972</v>
       </c>
       <c r="E258" t="n">
-        <v>107.7128584</v>
+        <v>107.8116298</v>
       </c>
       <c r="F258" t="n">
-        <v>75.3608423</v>
+        <v>76.1093935</v>
       </c>
     </row>
     <row r="259">
@@ -6124,16 +6124,16 @@
         </is>
       </c>
       <c r="C259" t="n">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="D259" t="n">
-        <v>89.5306246</v>
+        <v>89.6391462</v>
       </c>
       <c r="E259" t="n">
-        <v>108.1225565</v>
+        <v>107.7128584</v>
       </c>
       <c r="F259" t="n">
-        <v>74.8789819</v>
+        <v>75.3608423</v>
       </c>
     </row>
     <row r="260">
@@ -6146,16 +6146,16 @@
         </is>
       </c>
       <c r="C260" t="n">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="D260" t="n">
-        <v>88.8905432</v>
+        <v>89.5306246</v>
       </c>
       <c r="E260" t="n">
-        <v>108.0786038</v>
+        <v>108.1225565</v>
       </c>
       <c r="F260" t="n">
-        <v>73.89818270000001</v>
+        <v>74.8789819</v>
       </c>
     </row>
     <row r="261">
@@ -6168,16 +6168,16 @@
         </is>
       </c>
       <c r="C261" t="n">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="D261" t="n">
-        <v>88.7670986</v>
+        <v>88.8905432</v>
       </c>
       <c r="E261" t="n">
-        <v>108.630749</v>
+        <v>108.0786038</v>
       </c>
       <c r="F261" t="n">
-        <v>73.42565209999999</v>
+        <v>73.89818270000001</v>
       </c>
     </row>
     <row r="262">
@@ -6190,16 +6190,16 @@
         </is>
       </c>
       <c r="C262" t="n">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="D262" t="n">
-        <v>88.2464152</v>
+        <v>88.7670986</v>
       </c>
       <c r="E262" t="n">
-        <v>108.6007817</v>
+        <v>108.630749</v>
       </c>
       <c r="F262" t="n">
-        <v>72.68247650000001</v>
+        <v>73.42565209999999</v>
       </c>
     </row>
     <row r="263">
@@ -6212,16 +6212,16 @@
         </is>
       </c>
       <c r="C263" t="n">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="D263" t="n">
-        <v>87.4895724</v>
+        <v>88.2464152</v>
       </c>
       <c r="E263" t="n">
-        <v>107.9431412</v>
+        <v>108.6007817</v>
       </c>
       <c r="F263" t="n">
-        <v>71.7632236</v>
+        <v>72.68247650000001</v>
       </c>
     </row>
     <row r="264">
@@ -6234,16 +6234,16 @@
         </is>
       </c>
       <c r="C264" t="n">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="D264" t="n">
-        <v>86.57777280000001</v>
+        <v>87.4895724</v>
       </c>
       <c r="E264" t="n">
-        <v>107.1553803</v>
+        <v>107.9431412</v>
       </c>
       <c r="F264" t="n">
-        <v>70.6919127</v>
+        <v>71.7632236</v>
       </c>
     </row>
     <row r="265">
@@ -6256,16 +6256,16 @@
         </is>
       </c>
       <c r="C265" t="n">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="D265" t="n">
-        <v>85.27382350000001</v>
+        <v>86.57777280000001</v>
       </c>
       <c r="E265" t="n">
-        <v>105.9676735</v>
+        <v>107.1553803</v>
       </c>
       <c r="F265" t="n">
-        <v>69.2659331</v>
+        <v>70.6919127</v>
       </c>
     </row>
     <row r="266">
@@ -6278,16 +6278,16 @@
         </is>
       </c>
       <c r="C266" t="n">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="D266" t="n">
-        <v>85.2314494</v>
+        <v>85.27382350000001</v>
       </c>
       <c r="E266" t="n">
-        <v>106.3925164</v>
+        <v>105.9676735</v>
       </c>
       <c r="F266" t="n">
-        <v>68.9431474</v>
+        <v>69.2659331</v>
       </c>
     </row>
     <row r="267">
@@ -6300,16 +6300,16 @@
         </is>
       </c>
       <c r="C267" t="n">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="D267" t="n">
-        <v>84.3305661</v>
+        <v>85.2314494</v>
       </c>
       <c r="E267" t="n">
-        <v>105.5533793</v>
+        <v>106.3925164</v>
       </c>
       <c r="F267" t="n">
-        <v>67.9548284</v>
+        <v>68.9431474</v>
       </c>
     </row>
     <row r="268">
@@ -6322,16 +6322,16 @@
         </is>
       </c>
       <c r="C268" t="n">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="D268" t="n">
-        <v>84.5488738</v>
+        <v>84.3305661</v>
       </c>
       <c r="E268" t="n">
-        <v>106.0408379</v>
+        <v>105.5533793</v>
       </c>
       <c r="F268" t="n">
-        <v>67.9208625</v>
+        <v>67.9548284</v>
       </c>
     </row>
     <row r="269">
@@ -6344,16 +6344,16 @@
         </is>
       </c>
       <c r="C269" t="n">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="D269" t="n">
-        <v>84.5954698</v>
+        <v>84.5488738</v>
       </c>
       <c r="E269" t="n">
-        <v>106.3081008</v>
+        <v>106.0408379</v>
       </c>
       <c r="F269" t="n">
-        <v>67.76249300000001</v>
+        <v>67.9208625</v>
       </c>
     </row>
     <row r="270">
@@ -6366,16 +6366,16 @@
         </is>
       </c>
       <c r="C270" t="n">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="D270" t="n">
-        <v>85.15417290000001</v>
+        <v>84.5954698</v>
       </c>
       <c r="E270" t="n">
-        <v>107.3701933</v>
+        <v>106.3081008</v>
       </c>
       <c r="F270" t="n">
-        <v>68.0026123</v>
+        <v>67.76249300000001</v>
       </c>
     </row>
     <row r="271">
@@ -6388,16 +6388,16 @@
         </is>
       </c>
       <c r="C271" t="n">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="D271" t="n">
-        <v>82.98250090000001</v>
+        <v>85.15417290000001</v>
       </c>
       <c r="E271" t="n">
-        <v>105.2023897</v>
+        <v>107.3701933</v>
       </c>
       <c r="F271" t="n">
-        <v>65.94427090000001</v>
+        <v>68.0026123</v>
       </c>
     </row>
     <row r="272">
@@ -6410,16 +6410,16 @@
         </is>
       </c>
       <c r="C272" t="n">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="D272" t="n">
-        <v>80.45053059999999</v>
+        <v>82.98250090000001</v>
       </c>
       <c r="E272" t="n">
-        <v>102.6561951</v>
+        <v>105.2023897</v>
       </c>
       <c r="F272" t="n">
-        <v>63.5812286</v>
+        <v>65.94427090000001</v>
       </c>
     </row>
     <row r="273">
@@ -6432,16 +6432,16 @@
         </is>
       </c>
       <c r="C273" t="n">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="D273" t="n">
-        <v>77.9770309</v>
+        <v>80.45053059999999</v>
       </c>
       <c r="E273" t="n">
-        <v>100.130137</v>
+        <v>102.6561951</v>
       </c>
       <c r="F273" t="n">
-        <v>61.2517397</v>
+        <v>63.5812286</v>
       </c>
     </row>
     <row r="274">
@@ -6454,16 +6454,16 @@
         </is>
       </c>
       <c r="C274" t="n">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="D274" t="n">
-        <v>76.00231839999999</v>
+        <v>77.9770309</v>
       </c>
       <c r="E274" t="n">
-        <v>98.08354540000001</v>
+        <v>100.130137</v>
       </c>
       <c r="F274" t="n">
-        <v>59.4130879</v>
+        <v>61.2517397</v>
       </c>
     </row>
     <row r="275">
@@ -6476,16 +6476,16 @@
         </is>
       </c>
       <c r="C275" t="n">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="D275" t="n">
-        <v>74.02554929999999</v>
+        <v>76.00231839999999</v>
       </c>
       <c r="E275" t="n">
-        <v>95.9540157</v>
+        <v>98.08354540000001</v>
       </c>
       <c r="F275" t="n">
-        <v>57.5991056</v>
+        <v>59.4130879</v>
       </c>
     </row>
     <row r="276">
@@ -6498,16 +6498,16 @@
         </is>
       </c>
       <c r="C276" t="n">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="D276" t="n">
-        <v>72.1602279</v>
+        <v>74.02554929999999</v>
       </c>
       <c r="E276" t="n">
-        <v>93.9551685</v>
+        <v>95.9540157</v>
       </c>
       <c r="F276" t="n">
-        <v>55.8693188</v>
+        <v>57.5991056</v>
       </c>
     </row>
     <row r="277">
@@ -6520,16 +6520,16 @@
         </is>
       </c>
       <c r="C277" t="n">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="D277" t="n">
-        <v>70.7939447</v>
+        <v>72.1602279</v>
       </c>
       <c r="E277" t="n">
-        <v>92.5458691</v>
+        <v>93.9551685</v>
       </c>
       <c r="F277" t="n">
-        <v>54.5425351</v>
+        <v>55.8693188</v>
       </c>
     </row>
     <row r="278">
@@ -6542,16 +6542,16 @@
         </is>
       </c>
       <c r="C278" t="n">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="D278" t="n">
-        <v>71.131851</v>
+        <v>70.7939447</v>
       </c>
       <c r="E278" t="n">
-        <v>93.50483079999999</v>
+        <v>92.5458691</v>
       </c>
       <c r="F278" t="n">
-        <v>54.4309002</v>
+        <v>54.5425351</v>
       </c>
     </row>
     <row r="279">
@@ -6564,16 +6564,16 @@
         </is>
       </c>
       <c r="C279" t="n">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="D279" t="n">
-        <v>71.8898774</v>
+        <v>71.131851</v>
       </c>
       <c r="E279" t="n">
-        <v>95.10584230000001</v>
+        <v>93.50483079999999</v>
       </c>
       <c r="F279" t="n">
-        <v>54.6336472</v>
+        <v>54.4309002</v>
       </c>
     </row>
     <row r="280">
@@ -6586,16 +6586,16 @@
         </is>
       </c>
       <c r="C280" t="n">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="D280" t="n">
-        <v>73.6451328</v>
+        <v>71.8898774</v>
       </c>
       <c r="E280" t="n">
-        <v>98.0256017</v>
+        <v>95.10584230000001</v>
       </c>
       <c r="F280" t="n">
-        <v>55.5618037</v>
+        <v>54.6336472</v>
       </c>
     </row>
     <row r="281">
@@ -6608,16 +6608,16 @@
         </is>
       </c>
       <c r="C281" t="n">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="D281" t="n">
-        <v>73.68802220000001</v>
+        <v>73.6451328</v>
       </c>
       <c r="E281" t="n">
-        <v>98.7108238</v>
+        <v>98.0256017</v>
       </c>
       <c r="F281" t="n">
-        <v>55.250897</v>
+        <v>55.5618037</v>
       </c>
     </row>
     <row r="282">
@@ -6630,16 +6630,16 @@
         </is>
       </c>
       <c r="C282" t="n">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="D282" t="n">
-        <v>73.6199415</v>
+        <v>73.68802220000001</v>
       </c>
       <c r="E282" t="n">
-        <v>99.0665395</v>
+        <v>98.7108238</v>
       </c>
       <c r="F282" t="n">
-        <v>54.9901197</v>
+        <v>55.250897</v>
       </c>
     </row>
     <row r="283">
@@ -6652,16 +6652,16 @@
         </is>
       </c>
       <c r="C283" t="n">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="D283" t="n">
-        <v>73.5673982</v>
+        <v>73.6199415</v>
       </c>
       <c r="E283" t="n">
-        <v>99.3048253</v>
+        <v>99.0665395</v>
       </c>
       <c r="F283" t="n">
-        <v>54.8189405</v>
+        <v>54.9901197</v>
       </c>
     </row>
     <row r="284">
@@ -6674,16 +6674,16 @@
         </is>
       </c>
       <c r="C284" t="n">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="D284" t="n">
-        <v>73.5583422</v>
+        <v>73.5673982</v>
       </c>
       <c r="E284" t="n">
-        <v>99.438085</v>
+        <v>99.3048253</v>
       </c>
       <c r="F284" t="n">
-        <v>54.7316268</v>
+        <v>54.8189405</v>
       </c>
     </row>
     <row r="285">
@@ -6696,16 +6696,16 @@
         </is>
       </c>
       <c r="C285" t="n">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="D285" t="n">
-        <v>73.3446659</v>
+        <v>73.5583422</v>
       </c>
       <c r="E285" t="n">
-        <v>99.3760983</v>
+        <v>99.438085</v>
       </c>
       <c r="F285" t="n">
-        <v>54.3549745</v>
+        <v>54.7316268</v>
       </c>
     </row>
     <row r="286">
@@ -6718,16 +6718,16 @@
         </is>
       </c>
       <c r="C286" t="n">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="D286" t="n">
-        <v>72.690968</v>
+        <v>73.3446659</v>
       </c>
       <c r="E286" t="n">
-        <v>98.8005363</v>
+        <v>99.3760983</v>
       </c>
       <c r="F286" t="n">
-        <v>53.6733691</v>
+        <v>54.3549745</v>
       </c>
     </row>
     <row r="287">
@@ -6740,16 +6740,16 @@
         </is>
       </c>
       <c r="C287" t="n">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="D287" t="n">
-        <v>72.3160147</v>
+        <v>72.690968</v>
       </c>
       <c r="E287" t="n">
-        <v>98.4682426</v>
+        <v>98.8005363</v>
       </c>
       <c r="F287" t="n">
-        <v>53.235093</v>
+        <v>53.6733691</v>
       </c>
     </row>
     <row r="288">
@@ -6762,16 +6762,16 @@
         </is>
       </c>
       <c r="C288" t="n">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="D288" t="n">
-        <v>70.99257420000001</v>
+        <v>72.3160147</v>
       </c>
       <c r="E288" t="n">
-        <v>96.9550905</v>
+        <v>98.4682426</v>
       </c>
       <c r="F288" t="n">
-        <v>52.0384549</v>
+        <v>53.235093</v>
       </c>
     </row>
     <row r="289">
@@ -6784,16 +6784,16 @@
         </is>
       </c>
       <c r="C289" t="n">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="D289" t="n">
-        <v>70.26417309999999</v>
+        <v>70.99257420000001</v>
       </c>
       <c r="E289" t="n">
-        <v>96.50061169999999</v>
+        <v>96.9550905</v>
       </c>
       <c r="F289" t="n">
-        <v>51.2056157</v>
+        <v>52.0384549</v>
       </c>
     </row>
     <row r="290">
@@ -6806,16 +6806,16 @@
         </is>
       </c>
       <c r="C290" t="n">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="D290" t="n">
-        <v>70.7846323</v>
+        <v>70.26417309999999</v>
       </c>
       <c r="E290" t="n">
-        <v>97.82638040000001</v>
+        <v>96.50061169999999</v>
       </c>
       <c r="F290" t="n">
-        <v>51.2030221</v>
+        <v>51.2056157</v>
       </c>
     </row>
     <row r="291">
@@ -6828,16 +6828,16 @@
         </is>
       </c>
       <c r="C291" t="n">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="D291" t="n">
-        <v>72.9642716</v>
+        <v>70.7846323</v>
       </c>
       <c r="E291" t="n">
-        <v>101.4748013</v>
+        <v>97.82638040000001</v>
       </c>
       <c r="F291" t="n">
-        <v>52.5657793</v>
+        <v>51.2030221</v>
       </c>
     </row>
     <row r="292">
@@ -6850,16 +6850,16 @@
         </is>
       </c>
       <c r="C292" t="n">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="D292" t="n">
-        <v>75.4335217</v>
+        <v>72.9642716</v>
       </c>
       <c r="E292" t="n">
-        <v>105.7276882</v>
+        <v>101.4748013</v>
       </c>
       <c r="F292" t="n">
-        <v>54.0178545</v>
+        <v>52.5657793</v>
       </c>
     </row>
     <row r="293">
@@ -6872,16 +6872,16 @@
         </is>
       </c>
       <c r="C293" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D293" t="n">
-        <v>77.5017625</v>
+        <v>75.4335217</v>
       </c>
       <c r="E293" t="n">
-        <v>109.4736759</v>
+        <v>105.7276882</v>
       </c>
       <c r="F293" t="n">
-        <v>55.2363137</v>
+        <v>54.0178545</v>
       </c>
     </row>
     <row r="294">
@@ -6894,16 +6894,16 @@
         </is>
       </c>
       <c r="C294" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="D294" t="n">
-        <v>79.6477817</v>
+        <v>77.5017625</v>
       </c>
       <c r="E294" t="n">
-        <v>113.0871021</v>
+        <v>109.4736759</v>
       </c>
       <c r="F294" t="n">
-        <v>56.51432</v>
+        <v>55.2363137</v>
       </c>
     </row>
     <row r="295">
@@ -6912,20 +6912,20 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>World</t>
+          <t>North America</t>
         </is>
       </c>
       <c r="C295" t="n">
-        <v>1970</v>
+        <v>2018</v>
       </c>
       <c r="D295" t="n">
-        <v>100</v>
+        <v>79.6477817</v>
       </c>
       <c r="E295" t="n">
-        <v>100</v>
+        <v>113.0871021</v>
       </c>
       <c r="F295" t="n">
-        <v>100</v>
+        <v>56.51432</v>
       </c>
     </row>
     <row r="296">
@@ -6938,16 +6938,16 @@
         </is>
       </c>
       <c r="C296" t="n">
-        <v>1971</v>
+        <v>1970</v>
       </c>
       <c r="D296" t="n">
-        <v>99.1002759</v>
+        <v>100</v>
       </c>
       <c r="E296" t="n">
-        <v>100.9532123</v>
+        <v>100</v>
       </c>
       <c r="F296" t="n">
-        <v>97.3148947</v>
+        <v>100</v>
       </c>
     </row>
     <row r="297">
@@ -6960,16 +6960,16 @@
         </is>
       </c>
       <c r="C297" t="n">
-        <v>1972</v>
+        <v>1971</v>
       </c>
       <c r="D297" t="n">
-        <v>97.9298836</v>
+        <v>99.1002759</v>
       </c>
       <c r="E297" t="n">
-        <v>101.1930825</v>
+        <v>100.9532123</v>
       </c>
       <c r="F297" t="n">
-        <v>94.7653954</v>
+        <v>97.3148947</v>
       </c>
     </row>
     <row r="298">
@@ -6982,16 +6982,16 @@
         </is>
       </c>
       <c r="C298" t="n">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="D298" t="n">
-        <v>96.78284069999999</v>
+        <v>97.9298836</v>
       </c>
       <c r="E298" t="n">
-        <v>101.005601</v>
+        <v>101.1930825</v>
       </c>
       <c r="F298" t="n">
-        <v>92.6636049</v>
+        <v>94.7653954</v>
       </c>
     </row>
     <row r="299">
@@ -7004,16 +7004,16 @@
         </is>
       </c>
       <c r="C299" t="n">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="D299" t="n">
-        <v>95.34543410000001</v>
+        <v>96.78284069999999</v>
       </c>
       <c r="E299" t="n">
-        <v>100.6185497</v>
+        <v>101.005601</v>
       </c>
       <c r="F299" t="n">
-        <v>90.2682746</v>
+        <v>92.6636049</v>
       </c>
     </row>
     <row r="300">
@@ -7026,16 +7026,16 @@
         </is>
       </c>
       <c r="C300" t="n">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="D300" t="n">
-        <v>93.5558012</v>
+        <v>95.34543410000001</v>
       </c>
       <c r="E300" t="n">
-        <v>99.7971052</v>
+        <v>100.6185497</v>
       </c>
       <c r="F300" t="n">
-        <v>87.6303107</v>
+        <v>90.2682746</v>
       </c>
     </row>
     <row r="301">
@@ -7048,16 +7048,16 @@
         </is>
       </c>
       <c r="C301" t="n">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="D301" t="n">
-        <v>91.48921850000001</v>
+        <v>93.5558012</v>
       </c>
       <c r="E301" t="n">
-        <v>98.4079385</v>
+        <v>99.7971052</v>
       </c>
       <c r="F301" t="n">
-        <v>84.9337799</v>
+        <v>87.6303107</v>
       </c>
     </row>
     <row r="302">
@@ -7070,16 +7070,16 @@
         </is>
       </c>
       <c r="C302" t="n">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="D302" t="n">
-        <v>88.5352412</v>
+        <v>91.48921850000001</v>
       </c>
       <c r="E302" t="n">
-        <v>95.61089320000001</v>
+        <v>98.4079385</v>
       </c>
       <c r="F302" t="n">
-        <v>81.8530892</v>
+        <v>84.9337799</v>
       </c>
     </row>
     <row r="303">
@@ -7092,16 +7092,16 @@
         </is>
       </c>
       <c r="C303" t="n">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="D303" t="n">
-        <v>85.6840467</v>
+        <v>88.5352412</v>
       </c>
       <c r="E303" t="n">
-        <v>92.7871614</v>
+        <v>95.61089320000001</v>
       </c>
       <c r="F303" t="n">
-        <v>78.9862613</v>
+        <v>81.8530892</v>
       </c>
     </row>
     <row r="304">
@@ -7114,16 +7114,16 @@
         </is>
       </c>
       <c r="C304" t="n">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="D304" t="n">
-        <v>83.34748</v>
+        <v>85.6840467</v>
       </c>
       <c r="E304" t="n">
-        <v>90.6706792</v>
+        <v>92.7871614</v>
       </c>
       <c r="F304" t="n">
-        <v>76.50850629999999</v>
+        <v>78.9862613</v>
       </c>
     </row>
     <row r="305">
@@ -7136,16 +7136,16 @@
         </is>
       </c>
       <c r="C305" t="n">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="D305" t="n">
-        <v>81.50809340000001</v>
+        <v>83.34748</v>
       </c>
       <c r="E305" t="n">
-        <v>89.2105091</v>
+        <v>90.6706792</v>
       </c>
       <c r="F305" t="n">
-        <v>74.388272</v>
+        <v>76.50850629999999</v>
       </c>
     </row>
     <row r="306">
@@ -7158,16 +7158,16 @@
         </is>
       </c>
       <c r="C306" t="n">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="D306" t="n">
-        <v>79.8368748</v>
+        <v>81.50809340000001</v>
       </c>
       <c r="E306" t="n">
-        <v>87.8251131</v>
+        <v>89.2105091</v>
       </c>
       <c r="F306" t="n">
-        <v>72.5191062</v>
+        <v>74.388272</v>
       </c>
     </row>
     <row r="307">
@@ -7180,16 +7180,16 @@
         </is>
       </c>
       <c r="C307" t="n">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="D307" t="n">
-        <v>77.28138509999999</v>
+        <v>79.8368748</v>
       </c>
       <c r="E307" t="n">
-        <v>85.3322953</v>
+        <v>87.8251131</v>
       </c>
       <c r="F307" t="n">
-        <v>69.95192950000001</v>
+        <v>72.5191062</v>
       </c>
     </row>
     <row r="308">
@@ -7202,16 +7202,16 @@
         </is>
       </c>
       <c r="C308" t="n">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="D308" t="n">
-        <v>74.5181848</v>
+        <v>77.28138509999999</v>
       </c>
       <c r="E308" t="n">
-        <v>82.54593490000001</v>
+        <v>85.3322953</v>
       </c>
       <c r="F308" t="n">
-        <v>67.2454963</v>
+        <v>69.95192950000001</v>
       </c>
     </row>
     <row r="309">
@@ -7224,16 +7224,16 @@
         </is>
       </c>
       <c r="C309" t="n">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="D309" t="n">
-        <v>71.8320243</v>
+        <v>74.5181848</v>
       </c>
       <c r="E309" t="n">
-        <v>79.88060950000001</v>
+        <v>82.54593490000001</v>
       </c>
       <c r="F309" t="n">
-        <v>64.54340310000001</v>
+        <v>67.2454963</v>
       </c>
     </row>
     <row r="310">
@@ -7246,16 +7246,16 @@
         </is>
       </c>
       <c r="C310" t="n">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="D310" t="n">
-        <v>69.7531144</v>
+        <v>71.8320243</v>
       </c>
       <c r="E310" t="n">
-        <v>77.90470379999999</v>
+        <v>79.88060950000001</v>
       </c>
       <c r="F310" t="n">
-        <v>62.4385823</v>
+        <v>64.54340310000001</v>
       </c>
     </row>
     <row r="311">
@@ -7268,16 +7268,16 @@
         </is>
       </c>
       <c r="C311" t="n">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="D311" t="n">
-        <v>68.1256656</v>
+        <v>69.7531144</v>
       </c>
       <c r="E311" t="n">
-        <v>76.37934009999999</v>
+        <v>77.90470379999999</v>
       </c>
       <c r="F311" t="n">
-        <v>60.787447</v>
+        <v>62.4385823</v>
       </c>
     </row>
     <row r="312">
@@ -7290,16 +7290,16 @@
         </is>
       </c>
       <c r="C312" t="n">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="D312" t="n">
-        <v>66.322487</v>
+        <v>68.1256656</v>
       </c>
       <c r="E312" t="n">
-        <v>74.57041390000001</v>
+        <v>76.37934009999999</v>
       </c>
       <c r="F312" t="n">
-        <v>59.0472787</v>
+        <v>60.787447</v>
       </c>
     </row>
     <row r="313">
@@ -7312,16 +7312,16 @@
         </is>
       </c>
       <c r="C313" t="n">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="D313" t="n">
-        <v>64.54670059999999</v>
+        <v>66.322487</v>
       </c>
       <c r="E313" t="n">
-        <v>72.7827188</v>
+        <v>74.57041390000001</v>
       </c>
       <c r="F313" t="n">
-        <v>57.3601051</v>
+        <v>59.0472787</v>
       </c>
     </row>
     <row r="314">
@@ -7334,16 +7334,16 @@
         </is>
       </c>
       <c r="C314" t="n">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="D314" t="n">
-        <v>63.5743437</v>
+        <v>64.54670059999999</v>
       </c>
       <c r="E314" t="n">
-        <v>71.83837870000001</v>
+        <v>72.7827188</v>
       </c>
       <c r="F314" t="n">
-        <v>56.4036784</v>
+        <v>57.3601051</v>
       </c>
     </row>
     <row r="315">
@@ -7356,16 +7356,16 @@
         </is>
       </c>
       <c r="C315" t="n">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="D315" t="n">
-        <v>62.6811227</v>
+        <v>63.5743437</v>
       </c>
       <c r="E315" t="n">
-        <v>71.0306149</v>
+        <v>71.83837870000001</v>
       </c>
       <c r="F315" t="n">
-        <v>55.4894903</v>
+        <v>56.4036784</v>
       </c>
     </row>
     <row r="316">
@@ -7378,16 +7378,16 @@
         </is>
       </c>
       <c r="C316" t="n">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="D316" t="n">
-        <v>61.6091396</v>
+        <v>62.6811227</v>
       </c>
       <c r="E316" t="n">
-        <v>69.99980840000001</v>
+        <v>71.0306149</v>
       </c>
       <c r="F316" t="n">
-        <v>54.3542372</v>
+        <v>55.4894903</v>
       </c>
     </row>
     <row r="317">
@@ -7400,16 +7400,16 @@
         </is>
       </c>
       <c r="C317" t="n">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="D317" t="n">
-        <v>60.1198509</v>
+        <v>61.6091396</v>
       </c>
       <c r="E317" t="n">
-        <v>68.49201360000001</v>
+        <v>69.99980840000001</v>
       </c>
       <c r="F317" t="n">
-        <v>52.8812806</v>
+        <v>54.3542372</v>
       </c>
     </row>
     <row r="318">
@@ -7422,16 +7422,16 @@
         </is>
       </c>
       <c r="C318" t="n">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="D318" t="n">
-        <v>58.1092963</v>
+        <v>60.1198509</v>
       </c>
       <c r="E318" t="n">
-        <v>66.3660057</v>
+        <v>68.49201360000001</v>
       </c>
       <c r="F318" t="n">
-        <v>50.9784962</v>
+        <v>52.8812806</v>
       </c>
     </row>
     <row r="319">
@@ -7444,16 +7444,16 @@
         </is>
       </c>
       <c r="C319" t="n">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="D319" t="n">
-        <v>56.2008977</v>
+        <v>58.1092963</v>
       </c>
       <c r="E319" t="n">
-        <v>64.3275453</v>
+        <v>66.3660057</v>
       </c>
       <c r="F319" t="n">
-        <v>49.2023326</v>
+        <v>50.9784962</v>
       </c>
     </row>
     <row r="320">
@@ -7466,16 +7466,16 @@
         </is>
       </c>
       <c r="C320" t="n">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="D320" t="n">
-        <v>54.0360964</v>
+        <v>56.2008977</v>
       </c>
       <c r="E320" t="n">
-        <v>62.0324969</v>
+        <v>64.3275453</v>
       </c>
       <c r="F320" t="n">
-        <v>47.2029372</v>
+        <v>49.2023326</v>
       </c>
     </row>
     <row r="321">
@@ -7488,16 +7488,16 @@
         </is>
       </c>
       <c r="C321" t="n">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="D321" t="n">
-        <v>53.0421358</v>
+        <v>54.0360964</v>
       </c>
       <c r="E321" t="n">
-        <v>61.0120352</v>
+        <v>62.0324969</v>
       </c>
       <c r="F321" t="n">
-        <v>46.2224307</v>
+        <v>47.2029372</v>
       </c>
     </row>
     <row r="322">
@@ -7510,16 +7510,16 @@
         </is>
       </c>
       <c r="C322" t="n">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="D322" t="n">
-        <v>51.7500764</v>
+        <v>53.0421358</v>
       </c>
       <c r="E322" t="n">
-        <v>59.6143703</v>
+        <v>61.0120352</v>
       </c>
       <c r="F322" t="n">
-        <v>44.9995846</v>
+        <v>46.2224307</v>
       </c>
     </row>
     <row r="323">
@@ -7532,16 +7532,16 @@
         </is>
       </c>
       <c r="C323" t="n">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="D323" t="n">
-        <v>50.4664511</v>
+        <v>51.7500764</v>
       </c>
       <c r="E323" t="n">
-        <v>58.1777225</v>
+        <v>59.6143703</v>
       </c>
       <c r="F323" t="n">
-        <v>43.8092504</v>
+        <v>44.9995846</v>
       </c>
     </row>
     <row r="324">
@@ -7554,16 +7554,16 @@
         </is>
       </c>
       <c r="C324" t="n">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="D324" t="n">
-        <v>48.6643792</v>
+        <v>50.4664511</v>
       </c>
       <c r="E324" t="n">
-        <v>56.1624015</v>
+        <v>58.1777225</v>
       </c>
       <c r="F324" t="n">
-        <v>42.2015856</v>
+        <v>43.8092504</v>
       </c>
     </row>
     <row r="325">
@@ -7576,16 +7576,16 @@
         </is>
       </c>
       <c r="C325" t="n">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="D325" t="n">
-        <v>47.2215375</v>
+        <v>48.6643792</v>
       </c>
       <c r="E325" t="n">
-        <v>54.5681729</v>
+        <v>56.1624015</v>
       </c>
       <c r="F325" t="n">
-        <v>40.8896736</v>
+        <v>42.2015856</v>
       </c>
     </row>
     <row r="326">
@@ -7598,16 +7598,16 @@
         </is>
       </c>
       <c r="C326" t="n">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="D326" t="n">
-        <v>45.6713694</v>
+        <v>47.2215375</v>
       </c>
       <c r="E326" t="n">
-        <v>52.9140444</v>
+        <v>54.5681729</v>
       </c>
       <c r="F326" t="n">
-        <v>39.431147</v>
+        <v>40.8896736</v>
       </c>
     </row>
     <row r="327">
@@ -7620,16 +7620,16 @@
         </is>
       </c>
       <c r="C327" t="n">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="D327" t="n">
-        <v>44.4983943</v>
+        <v>45.6713694</v>
       </c>
       <c r="E327" t="n">
-        <v>51.6829678</v>
+        <v>52.9140444</v>
       </c>
       <c r="F327" t="n">
-        <v>38.3065339</v>
+        <v>39.431147</v>
       </c>
     </row>
     <row r="328">
@@ -7642,16 +7642,16 @@
         </is>
       </c>
       <c r="C328" t="n">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="D328" t="n">
-        <v>43.5156567</v>
+        <v>44.4983943</v>
       </c>
       <c r="E328" t="n">
-        <v>50.6665223</v>
+        <v>51.6829678</v>
       </c>
       <c r="F328" t="n">
-        <v>37.3618957</v>
+        <v>38.3065339</v>
       </c>
     </row>
     <row r="329">
@@ -7664,16 +7664,16 @@
         </is>
       </c>
       <c r="C329" t="n">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="D329" t="n">
-        <v>42.9278308</v>
+        <v>43.5156567</v>
       </c>
       <c r="E329" t="n">
-        <v>50.1212936</v>
+        <v>50.6665223</v>
       </c>
       <c r="F329" t="n">
-        <v>36.7731788</v>
+        <v>37.3618957</v>
       </c>
     </row>
     <row r="330">
@@ -7686,16 +7686,16 @@
         </is>
       </c>
       <c r="C330" t="n">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="D330" t="n">
-        <v>42.2031513</v>
+        <v>42.9278308</v>
       </c>
       <c r="E330" t="n">
-        <v>49.44708</v>
+        <v>50.1212936</v>
       </c>
       <c r="F330" t="n">
-        <v>36.074307</v>
+        <v>36.7731788</v>
       </c>
     </row>
     <row r="331">
@@ -7708,16 +7708,16 @@
         </is>
       </c>
       <c r="C331" t="n">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="D331" t="n">
-        <v>41.2951521</v>
+        <v>42.2031513</v>
       </c>
       <c r="E331" t="n">
-        <v>48.5931377</v>
+        <v>49.44708</v>
       </c>
       <c r="F331" t="n">
-        <v>35.203315</v>
+        <v>36.074307</v>
       </c>
     </row>
     <row r="332">
@@ -7730,16 +7730,16 @@
         </is>
       </c>
       <c r="C332" t="n">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="D332" t="n">
-        <v>40.1428042</v>
+        <v>41.2951521</v>
       </c>
       <c r="E332" t="n">
-        <v>47.3578765</v>
+        <v>48.5931377</v>
       </c>
       <c r="F332" t="n">
-        <v>34.1396352</v>
+        <v>35.203315</v>
       </c>
     </row>
     <row r="333">
@@ -7752,16 +7752,16 @@
         </is>
       </c>
       <c r="C333" t="n">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="D333" t="n">
-        <v>38.7193914</v>
+        <v>40.1428042</v>
       </c>
       <c r="E333" t="n">
-        <v>45.7816396</v>
+        <v>47.3578765</v>
       </c>
       <c r="F333" t="n">
-        <v>32.8353591</v>
+        <v>34.1396352</v>
       </c>
     </row>
     <row r="334">
@@ -7774,16 +7774,16 @@
         </is>
       </c>
       <c r="C334" t="n">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="D334" t="n">
-        <v>36.877125</v>
+        <v>38.7193914</v>
       </c>
       <c r="E334" t="n">
-        <v>43.7304842</v>
+        <v>45.7816396</v>
       </c>
       <c r="F334" t="n">
-        <v>31.1678583</v>
+        <v>32.8353591</v>
       </c>
     </row>
     <row r="335">
@@ -7796,16 +7796,16 @@
         </is>
       </c>
       <c r="C335" t="n">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="D335" t="n">
-        <v>35.1531515</v>
+        <v>36.877125</v>
       </c>
       <c r="E335" t="n">
-        <v>41.8612842</v>
+        <v>43.7304842</v>
       </c>
       <c r="F335" t="n">
-        <v>29.5962132</v>
+        <v>31.1678583</v>
       </c>
     </row>
     <row r="336">
@@ -7818,16 +7818,16 @@
         </is>
       </c>
       <c r="C336" t="n">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="D336" t="n">
-        <v>33.4410414</v>
+        <v>35.1531515</v>
       </c>
       <c r="E336" t="n">
-        <v>40.0057175</v>
+        <v>41.8612842</v>
       </c>
       <c r="F336" t="n">
-        <v>28.0500189</v>
+        <v>29.5962132</v>
       </c>
     </row>
     <row r="337">
@@ -7840,16 +7840,16 @@
         </is>
       </c>
       <c r="C337" t="n">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="D337" t="n">
-        <v>32.3710899</v>
+        <v>33.4410414</v>
       </c>
       <c r="E337" t="n">
-        <v>38.8422426</v>
+        <v>40.0057175</v>
       </c>
       <c r="F337" t="n">
-        <v>27.0858778</v>
+        <v>28.0500189</v>
       </c>
     </row>
     <row r="338">
@@ -7862,16 +7862,16 @@
         </is>
       </c>
       <c r="C338" t="n">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="D338" t="n">
-        <v>31.7382643</v>
+        <v>32.3710899</v>
       </c>
       <c r="E338" t="n">
-        <v>38.1353535</v>
+        <v>38.8422426</v>
       </c>
       <c r="F338" t="n">
-        <v>26.500441</v>
+        <v>27.0858778</v>
       </c>
     </row>
     <row r="339">
@@ -7884,16 +7884,16 @@
         </is>
       </c>
       <c r="C339" t="n">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="D339" t="n">
-        <v>31.6690208</v>
+        <v>31.7382643</v>
       </c>
       <c r="E339" t="n">
-        <v>38.071988</v>
+        <v>38.1353535</v>
       </c>
       <c r="F339" t="n">
-        <v>26.3834578</v>
+        <v>26.500441</v>
       </c>
     </row>
     <row r="340">
@@ -7906,16 +7906,16 @@
         </is>
       </c>
       <c r="C340" t="n">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="D340" t="n">
-        <v>31.6275314</v>
+        <v>31.6690208</v>
       </c>
       <c r="E340" t="n">
-        <v>38.0687196</v>
+        <v>38.071988</v>
       </c>
       <c r="F340" t="n">
-        <v>26.2812118</v>
+        <v>26.3834578</v>
       </c>
     </row>
     <row r="341">
@@ -7928,16 +7928,16 @@
         </is>
       </c>
       <c r="C341" t="n">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="D341" t="n">
-        <v>31.1454081</v>
+        <v>31.6275314</v>
       </c>
       <c r="E341" t="n">
-        <v>37.5621374</v>
+        <v>38.0687196</v>
       </c>
       <c r="F341" t="n">
-        <v>25.7702126</v>
+        <v>26.2812118</v>
       </c>
     </row>
     <row r="342">
@@ -7950,16 +7950,16 @@
         </is>
       </c>
       <c r="C342" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D342" t="n">
-        <v>30.8852702</v>
+        <v>31.1454081</v>
       </c>
       <c r="E342" t="n">
-        <v>37.3430403</v>
+        <v>37.5621374</v>
       </c>
       <c r="F342" t="n">
-        <v>25.4654517</v>
+        <v>25.7702126</v>
       </c>
     </row>
     <row r="343">
@@ -7972,15 +7972,37 @@
         </is>
       </c>
       <c r="C343" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D343" t="n">
+        <v>30.8852702</v>
+      </c>
+      <c r="E343" t="n">
+        <v>37.3430403</v>
+      </c>
+      <c r="F343" t="n">
+        <v>25.4654517</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" s="1" t="n">
+        <v>342</v>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>World</t>
+        </is>
+      </c>
+      <c r="C344" t="n">
         <v>2018</v>
       </c>
-      <c r="D343" t="n">
+      <c r="D344" t="n">
         <v>30.8975673</v>
       </c>
-      <c r="E343" t="n">
+      <c r="E344" t="n">
         <v>37.4378072</v>
       </c>
-      <c r="F343" t="n">
+      <c r="F344" t="n">
         <v>25.400315</v>
       </c>
     </row>

--- a/living-planet-spread.xlsx
+++ b/living-planet-spread.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
